--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -42,7 +42,7 @@
     <t>sigma</t>
   </si>
   <si>
-    <t>r</t>
+    <t>rObs</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1001"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>beta</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>gamma</t>
   </si>
@@ -397,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -405,7 +402,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5418,15 +5415,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5439,11 +5436,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5456,15 +5450,9 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="D3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>gamma</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>gBar</t>
   </si>
@@ -402,7 +399,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5415,15 +5412,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5433,11 +5430,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5447,12 +5441,9 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>1</v>
       </c>
     </row>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>gamma</t>
+  </si>
   <si>
     <t>gBar</t>
   </si>
@@ -399,7 +402,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5412,15 +5415,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5430,8 +5433,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5441,9 +5447,12 @@
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>beta</t>
+  </si>
   <si>
     <t>gamma</t>
   </si>
@@ -394,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -402,7 +405,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5415,15 +5418,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5436,8 +5439,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5450,9 +5456,15 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
     </row>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -5420,8 +5420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5462,10 +5462,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.99999899999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -5421,7 +5421,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B2">
         <v>0</v>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,5005 +410,5005 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.18766905726154037</v>
+        <v>0.14650388135570033</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.24725194631150918</v>
+        <v>0.18490290668539222</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.2228674125056975</v>
+        <v>0.18186572248848429</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.2345475783235117</v>
+        <v>0.13272305281318264</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.23516722557495007</v>
+        <v>8.741393875002014E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.21355158738193186</v>
+        <v>0.13192139423049559</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.20447772129989836</v>
+        <v>0.13224098465702427</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.21651707152996333</v>
+        <v>0.16171275152464459</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.28483505476604987</v>
+        <v>0.19671201514247255</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.30178892312778821</v>
+        <v>0.1960394728297645</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.28030552636283868</v>
+        <v>0.20691131636509957</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.20240583488480252</v>
+        <v>0.23340431980189497</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.20228868373119616</v>
+        <v>0.2105796786491026</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.20257364332567177</v>
+        <v>0.19634094798365204</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.16785014524113417</v>
+        <v>0.14801243493774657</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.19473983709594991</v>
+        <v>0.14202345979219</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.19972125485411377</v>
+        <v>0.10370379186222539</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.21097152061068142</v>
+        <v>0.10542367688187122</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.1859791296786239</v>
+        <v>0.16887824628342848</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.1556640356545054</v>
+        <v>0.14318374959141855</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.13406256029297817</v>
+        <v>0.13578095964985021</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>9.2269437852958741E-2</v>
+        <v>0.14619781983247201</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7.2452471199720328E-2</v>
+        <v>0.17790285129679884</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>9.4285454173163336E-2</v>
+        <v>0.14715693567570901</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2.7404557184688493E-2</v>
+        <v>0.13612822844163078</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2.4432040112607554E-2</v>
+        <v>7.60399262202517E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2.5507025352403033E-2</v>
+        <v>4.1610743777837272E-2</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3.2675661987377362E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>3.6072915566555688E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>7.2373974331904845E-2</v>
+        <v>3.5128554161927984E-2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>9.278821647804586E-2</v>
+        <v>6.0633639831421449E-2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>4.2114766127057994E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2.580802857506221E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2.4432040112607554E-2</v>
+        <v>2.9787723330508897E-2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2.4432040112607554E-2</v>
+        <v>3.5620156665416264E-2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7.581582895082653E-2</v>
+        <v>6.2500184750660187E-2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>6.33349061684301E-2</v>
+        <v>5.1085131343834814E-2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5.7408931533956535E-2</v>
+        <v>3.2491814266651764E-2</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6.5198175786238766E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2.4432040112607554E-2</v>
+        <v>3.3952974677314535E-2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>3.4522139290901928E-2</v>
+        <v>7.2166586046513256E-2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>4.3497405707242677E-2</v>
+        <v>7.8997469468765694E-2</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2.4432040112607554E-2</v>
+        <v>9.3263139988863888E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5.1652858278938764E-2</v>
+        <v>0.12070431136337116</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>4.9111363715769914E-2</v>
+        <v>0.10352809135788259</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5.2657399905360808E-2</v>
+        <v>0.104716572550706</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>5.5156466328787991E-2</v>
+        <v>7.9241260202527614E-2</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3.9255884531746818E-2</v>
+        <v>9.289968139413618E-2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2.4432040112607554E-2</v>
+        <v>5.1997955112200338E-2</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2.4432040112607554E-2</v>
+        <v>0.12029260073400287</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2.4432040112607554E-2</v>
+        <v>7.0440165632612517E-2</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2.4432040112607554E-2</v>
+        <v>3.9781706140870565E-2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2.8898309703008836E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>3.3591554783383999E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2.4432040112607554E-2</v>
+        <v>9.1907457691384892E-2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>3.2214367791572281E-2</v>
+        <v>4.1202796460281965E-2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2.9790956960007317E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>4.4688161809297119E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>9.3929213814435558E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>3.1311344518584049E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5.2984304512217348E-2</v>
+        <v>2.8864856575736321E-2</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4.7660796820231791E-2</v>
+        <v>3.5796170116966217E-2</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>4.517279614132437E-2</v>
+        <v>3.4644647737230611E-2</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>3.1233760997366501E-2</v>
+        <v>2.9255448580696074E-2</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>3.6945049923354158E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3.1206042517699314E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2.4432040112607554E-2</v>
+        <v>3.4415872662616483E-2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3.7995043076705828E-2</v>
+        <v>3.1132409631587536E-2</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5.1231584624393596E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>8.4908157200917045E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>9.4346270242697469E-2</v>
+        <v>7.3694832577112748E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>8.6594340239858611E-2</v>
+        <v>3.4403417699586283E-2</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>4.8786688591612726E-2</v>
+        <v>3.2655560422284236E-2</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5.7450581999531507E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>4.7631130097832049E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5.3521094514727072E-2</v>
+        <v>5.1755173943997139E-2</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>7.9988295274475943E-2</v>
+        <v>5.0851937502740981E-2</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6.218466343285145E-2</v>
+        <v>9.5631258552166462E-2</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>4.6860050644426644E-2</v>
+        <v>0.14496340180769188</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>3.9646907909431685E-2</v>
+        <v>0.16057720037807313</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>4.5200995579787941E-2</v>
+        <v>0.14224491426186708</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.10903436672629874</v>
+        <v>0.15998709339681233</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>7.6665307833010662E-2</v>
+        <v>0.13980729419783464</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.11872788188780513</v>
+        <v>0.11380192962220814</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.10737095840331073</v>
+        <v>0.14705429340861886</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.1335528653057442</v>
+        <v>0.15181145824804129</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.13058323378766493</v>
+        <v>0.11732327845046914</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>0.10803891955459956</v>
+        <v>9.2444654878196711E-2</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>9.5799833419158001E-2</v>
+        <v>0.10225295410695348</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>0.12453783059222918</v>
+        <v>6.1805446573860626E-2</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>0.16214850508232745</v>
+        <v>6.4056662085287944E-2</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.18771688887186364</v>
+        <v>0.1107408437046402</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.16130793110867778</v>
+        <v>0.13367045070357256</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.11212984861956936</v>
+        <v>0.12731600579758404</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.12156338911705476</v>
+        <v>0.17620328616796652</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.13475728591431951</v>
+        <v>0.15876429745988566</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>4.8989512573645776E-2</v>
+        <v>0.10523992983333726</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>4.9174145135762917E-2</v>
+        <v>0.10658764963153886</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.11550708452148059</v>
+        <v>7.5524101813694788E-2</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.10521199543942338</v>
+        <v>3.7529059797500521E-2</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>8.0522882284607133E-2</v>
+        <v>3.8980243407215905E-2</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>4.7495608822968348E-2</v>
+        <v>0.1260795549407506</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>2.4432040112607554E-2</v>
+        <v>0.13783944994700728</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>2.4432040112607554E-2</v>
+        <v>9.7812356057365421E-2</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>3.0821014329254184E-2</v>
+        <v>0.12556756872153438</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2.4432040112607554E-2</v>
+        <v>9.7852999555766818E-2</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2.9827577054360548E-2</v>
+        <v>0.10214609975654193</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4.9850776786353003E-2</v>
+        <v>0.12535569356489232</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>3.4073132885119616E-2</v>
+        <v>7.338686176682431E-2</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>4.6803040283372815E-2</v>
+        <v>4.7004158016307807E-2</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>6.3030466389202913E-2</v>
+        <v>4.3737701613387164E-2</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>6.0445115237717048E-2</v>
+        <v>5.2167555819393557E-2</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>0.12295944549262092</v>
+        <v>7.7585664932115203E-2</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>7.6636383632995575E-2</v>
+        <v>0.11422825508345787</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>8.3523055117911804E-2</v>
+        <v>8.2996435370363025E-2</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>5.2281671533632765E-2</v>
+        <v>0.10930535212435052</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>3.2996429984914852E-2</v>
+        <v>5.551561651232087E-2</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>4.4172076447815775E-2</v>
+        <v>0.10030337315030012</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>7.6816731387299997E-2</v>
+        <v>0.11442162630119715</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>8.0279483003802804E-2</v>
+        <v>9.6003749321639034E-2</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.12108707154484459</v>
+        <v>0.13160766257259798</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>8.6016751117418605E-2</v>
+        <v>0.15264188190194786</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>9.4590728336321844E-2</v>
+        <v>0.17129502838188582</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>7.4327384957925333E-2</v>
+        <v>0.19142234962633858</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>4.9405905214270282E-2</v>
+        <v>0.1962199163636289</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2.4432040112607554E-2</v>
+        <v>0.18234796643415349</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>4.1622080576420799E-2</v>
+        <v>0.21854062230184995</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>9.9416928582770001E-2</v>
+        <v>0.18776003636997315</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.11273947431147864</v>
+        <v>0.18786427529762315</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.15457039968554268</v>
+        <v>0.16176446037119402</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.15052498029147818</v>
+        <v>0.21426471363276495</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.10385059279618306</v>
+        <v>0.17816832398634186</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>7.1913237550751435E-2</v>
+        <v>0.1400670457425415</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>4.6148435426862477E-2</v>
+        <v>0.10217279428326494</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>7.9365843465092706E-2</v>
+        <v>5.7223597536979261E-2</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6.2007835819192114E-2</v>
+        <v>3.4452462435930822E-2</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>6.3605721660576611E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2.7753851967690021E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>2.4906384492784824E-2</v>
+        <v>3.461118127779314E-2</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2.4432040112607554E-2</v>
+        <v>4.2421715626455372E-2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4.160421630414738E-2</v>
+        <v>4.8818615347249857E-2</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>9.3940996552977149E-2</v>
+        <v>8.5552529570788446E-2</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.10704159433139501</v>
+        <v>3.6785235640886121E-2</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.10664729830358899</v>
+        <v>5.6785103454121397E-2</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.13869337750114497</v>
+        <v>8.8897968851714526E-2</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.15768633015263608</v>
+        <v>0.14133336447095735</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>7.0733790988271122E-2</v>
+        <v>0.20585760831351502</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>2.4432040112607554E-2</v>
+        <v>0.22194570077253975</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>2.4432040112607554E-2</v>
+        <v>0.2281103895943366</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>2.4432040112607554E-2</v>
+        <v>0.20073810013783711</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>2.4432040112607554E-2</v>
+        <v>0.15420146666032244</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2.4432040112607554E-2</v>
+        <v>0.23077279645586607</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>2.4432040112607554E-2</v>
+        <v>0.20169385878405127</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>5.0921576738006978E-2</v>
+        <v>0.18793078792297821</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>3.4506067443426838E-2</v>
+        <v>0.25368000426625414</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>2.4432040112607554E-2</v>
+        <v>0.23261779760399476</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>2.4432040112607554E-2</v>
+        <v>0.17888834400195891</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>2.4432040112607554E-2</v>
+        <v>0.1629240404802825</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>3.0005625794513151E-2</v>
+        <v>0.16461414051171167</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2.5953876626830831E-2</v>
+        <v>0.16672653000292437</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>2.4432040112607554E-2</v>
+        <v>0.20073196507335908</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>3.7121080673156601E-2</v>
+        <v>0.13040856026781403</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>2.9176435123325833E-2</v>
+        <v>0.11535760853061626</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>2.4432040112607554E-2</v>
+        <v>8.9734982978322511E-2</v>
       </c>
       <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>2.4432040112607554E-2</v>
+        <v>6.1059673245262798E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>4.2500251256010944E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3.9555728551115076E-2</v>
+        <v>5.7203158430085006E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>2.4432040112607554E-2</v>
+        <v>8.224035009823899E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>8.4279993593772182E-2</v>
+        <v>0.11056262424454887</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>7.0841985944878352E-2</v>
+        <v>0.14206563153841642</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>7.7810624031147649E-2</v>
+        <v>0.10041604683190447</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>8.7261357307075543E-2</v>
+        <v>7.9199078975398157E-2</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>4.4688312029337318E-2</v>
+        <v>0.1380432470340234</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>8.1564240927107498E-2</v>
+        <v>0.1112202546929824</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>8.7465841365883076E-2</v>
+        <v>0.13116110990289923</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>8.9571755563238625E-2</v>
+        <v>0.14907417300865936</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0.13158715226529333</v>
+        <v>5.677245063069275E-2</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0.13201960597710832</v>
+        <v>6.847775043397214E-2</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>7.0517347929190483E-2</v>
+        <v>5.8865730054608607E-2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>6.83221864665461E-2</v>
+        <v>4.971407485153595E-2</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>0.10475104002804657</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>0.1415197911772749</v>
+        <v>4.9707309449351138E-2</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>0.14496594786283021</v>
+        <v>5.0215860789991594E-2</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>8.337377167531726E-2</v>
+        <v>7.8713016201300043E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>0.11716450488318104</v>
+        <v>8.8543775592208732E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>0.11113013648376061</v>
+        <v>6.5305848548326995E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>0.11367237642316715</v>
+        <v>3.6620934208642777E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>0.1522977644945519</v>
+        <v>4.8015697699177108E-2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.15979631712051992</v>
+        <v>4.2599167746908896E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>3.6110460863771308E-2</v>
+        <v>6.3175578296799872E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>2.4432040112607554E-2</v>
+        <v>6.4198964072241987E-2</v>
       </c>
       <c r="B199" s="1"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>2.4432040112607554E-2</v>
+        <v>7.1586870590916937E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>2.7845319003474863E-2</v>
+        <v>2.8895725547027795E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>3.1461586365231664E-2</v>
+        <v>4.7176589074824998E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>2.4432040112607554E-2</v>
+        <v>6.065789703880109E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>5.2922220262341703E-2</v>
+        <v>5.4493967980647103E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>3.2002348022994197E-2</v>
+        <v>3.0155480439310652E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>2.5519994907610741E-2</v>
+        <v>4.8227441163294499E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>2.4432040112607554E-2</v>
+        <v>3.2231667539184924E-2</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>2.6006390188560477E-2</v>
+        <v>2.9574816962485311E-2</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>2.4432040112607554E-2</v>
+        <v>8.4147992058163645E-2</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>2.4432040112607554E-2</v>
+        <v>8.9704278060783182E-2</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>4.3461166929554235E-2</v>
+        <v>8.3480701825013104E-2</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>6.711304926576496E-2</v>
+        <v>9.2682345756608026E-2</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>2.4432040112607554E-2</v>
+        <v>9.5713237951507144E-2</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>3.3096592591817443E-2</v>
+        <v>5.6637063542071611E-2</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>2.4432040112607554E-2</v>
+        <v>7.2220238755143482E-2</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>3.4081042012667755E-2</v>
+        <v>0.10039881572544179</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>3.8431955193701316E-2</v>
+        <v>9.8430760536991735E-2</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>3.1217284546325993E-2</v>
+        <v>5.5072329577439003E-2</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>3.131506101666421E-2</v>
+        <v>8.6595242898104705E-2</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>4.6708899757246673E-2</v>
+        <v>6.4972743086941925E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>6.7940802683116461E-2</v>
+        <v>8.2689422002922175E-2</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>4.4357737196354566E-2</v>
+        <v>9.5546700675814805E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>2.4432040112607554E-2</v>
+        <v>9.1854284572047612E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>2.4432040112607554E-2</v>
+        <v>0.12216228827248134</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>4.8645064028363619E-2</v>
+        <v>0.22544221751486312</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>5.8149903870572568E-2</v>
+        <v>0.19491491296719929</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>6.9315982976926108E-2</v>
+        <v>0.20863299270870525</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>5.4180364051254024E-2</v>
+        <v>0.19933984776617447</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>3.3394964823267696E-2</v>
+        <v>0.18615966838840234</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>9.5423659610842926E-2</v>
+        <v>0.18841094793272814</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>8.8947419501011288E-2</v>
+        <v>0.13747915620497941</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>8.5179906820438495E-2</v>
+        <v>0.10817644381698888</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>7.3847931640001849E-2</v>
+        <v>6.8360448886822758E-2</v>
       </c>
       <c r="B235" s="1"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>7.4207372198824409E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>6.2282287258147745E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>3.2879692054182834E-2</v>
+        <v>3.0214836555047173E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>4.5438505308690237E-2</v>
+        <v>9.4556989686309684E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>8.957657108620877E-2</v>
+        <v>6.9092305844578109E-2</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>9.2937656467276877E-2</v>
+        <v>7.9994676152059935E-2</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>6.6052681382169645E-2</v>
+        <v>8.018829791253955E-2</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>6.6372740609674047E-2</v>
+        <v>7.7727353898952814E-2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>9.7947838157695116E-2</v>
+        <v>2.7205437182522305E-2</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.15399437730351548</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.10134449613256546</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.10179052470546593</v>
+        <v>7.7990651203886235E-2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>8.419562985855171E-2</v>
+        <v>7.5373142535570078E-2</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>9.9660919557957903E-2</v>
+        <v>4.4371389673936279E-2</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0.10200757577453103</v>
+        <v>4.1283222550602849E-2</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>7.9343283843110332E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>2.7680883163961237E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2.4432040112607554E-2</v>
+        <v>2.9597198327960823E-2</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>2.4432040112607554E-2</v>
+        <v>3.8465588527791347E-2</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>5.3105409096880468E-2</v>
+        <v>2.9839151528922719E-2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>3.6545023928296602E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>4.6270970424497945E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>7.3170373678071166E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>7.8779832073733375E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>7.9383816973290347E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>5.8058636231527933E-2</v>
+        <v>5.6596164059218149E-2</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>8.3628042952037213E-2</v>
+        <v>5.1991666100370697E-2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>0.13509574663009286</v>
+        <v>9.5311153194498274E-2</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>0.14587339470125363</v>
+        <v>0.13227156430870221</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>0.15051963812926619</v>
+        <v>0.14013039249597944</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>0.15254154861634681</v>
+        <v>0.17146523825533336</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>0.18101796084606739</v>
+        <v>0.20280043234595896</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>0.16268666202724841</v>
+        <v>0.24065741189782625</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0.1392447584313235</v>
+        <v>0.2459796218817048</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.15168814883359302</v>
+        <v>0.27606904227717477</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.13563645345329386</v>
+        <v>0.25602848922964971</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.16022827882266438</v>
+        <v>0.22961239931032121</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.10530143864298479</v>
+        <v>0.23922815693380972</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.14582581428069086</v>
+        <v>0.19523495653058345</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.11597575538442614</v>
+        <v>0.19741849328929978</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.11982707428631548</v>
+        <v>0.18684323426274579</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.10005137665109427</v>
+        <v>0.15932701154533691</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>0.1204490105867505</v>
+        <v>0.18691274045932446</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>6.969362463957525E-2</v>
+        <v>0.17373555395700757</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>3.7573949725932886E-2</v>
+        <v>0.15820952523978996</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>8.6392106527435591E-2</v>
+        <v>0.13975929885771568</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>5.3292464255651859E-2</v>
+        <v>0.13756166041751472</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>3.4264829428464802E-2</v>
+        <v>0.16472122362769581</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>3.5966223392074906E-2</v>
+        <v>0.2041311644086598</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>2.4432040112607554E-2</v>
+        <v>0.21252682579117343</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>2.7715767044812999E-2</v>
+        <v>0.17114118932712602</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>5.8255087707557746E-2</v>
+        <v>0.13343133724898221</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>5.931876221372271E-2</v>
+        <v>0.10446400022098169</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>0.1141436309758239</v>
+        <v>0.13400545650648549</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>6.3035548518935391E-2</v>
+        <v>0.1199282571301504</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>5.3220823264776194E-2</v>
+        <v>0.11193126785805797</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>3.0386247174506009E-2</v>
+        <v>7.4159747173853707E-2</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>3.9300179118314779E-2</v>
+        <v>6.3886979230742255E-2</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>2.4432040112607554E-2</v>
+        <v>6.8881660227006258E-2</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>2.4432040112607554E-2</v>
+        <v>4.8334454271969932E-2</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>2.4432040112607554E-2</v>
+        <v>2.8809194980846671E-2</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>2.4432040112607554E-2</v>
+        <v>2.7491844964168351E-2</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>2.4432040112607554E-2</v>
+        <v>4.3398031213510463E-2</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>2.4432040112607554E-2</v>
+        <v>4.4524690176326646E-2</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>3.6726867917120938E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>4.4662460946727378E-2</v>
+        <v>3.0678908499764096E-2</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>2.9518779766520155E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>2.4432040112607554E-2</v>
+        <v>4.05138617734805E-2</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>2.4432040112607554E-2</v>
+        <v>3.1210193932657948E-2</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>2.4432040112607554E-2</v>
+        <v>4.0328109399894556E-2</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>5.6998378369027713E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>6.9478231581158512E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>2.4432040112607554E-2</v>
+        <v>3.3223537096776647E-2</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>7.8015287330307714E-2</v>
+        <v>3.1665882458233742E-2</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>7.1003226051364957E-2</v>
+        <v>3.5005234146824389E-2</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>2.9394233461531871E-2</v>
+        <v>4.3754894633118803E-2</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>2.4432040112607554E-2</v>
+        <v>5.7528793113160004E-2</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>3.0016850923356039E-2</v>
+        <v>3.8841463739269791E-2</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>2.4432040112607554E-2</v>
+        <v>6.7271475681215179E-2</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>2.4432040112607554E-2</v>
+        <v>6.9568231213458662E-2</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>2.4432040112607554E-2</v>
+        <v>9.1926248100218488E-2</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>2.4432040112607554E-2</v>
+        <v>6.712336248159545E-2</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>2.8825276545875595E-2</v>
+        <v>8.9244270159806169E-2</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>2.4432040112607554E-2</v>
+        <v>0.15064164711249162</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>2.4432040112607554E-2</v>
+        <v>0.16065034080378082</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>2.8569758054235981E-2</v>
+        <v>0.11635413240196817</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>2.4432040112607554E-2</v>
+        <v>0.11490462812168195</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>2.4432040112607554E-2</v>
+        <v>0.1448984810182351</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>2.4432040112607554E-2</v>
+        <v>0.13298645999578754</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>2.6464395669561928E-2</v>
+        <v>0.19656276526135141</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>3.105598788741212E-2</v>
+        <v>0.23030960634666647</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>2.4432040112607554E-2</v>
+        <v>0.22608051051046799</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>5.7148655255317496E-2</v>
+        <v>0.26336800032722962</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>9.2249206584360879E-2</v>
+        <v>0.24029857057452972</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>8.3597246787682294E-2</v>
+        <v>0.20950150584884464</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>0.19148684867255725</v>
+        <v>0.19608396270143105</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>0.1714878555220482</v>
+        <v>0.21179052392096223</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>0.19733314219757925</v>
+        <v>0.22584343935782941</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>0.18709291082862278</v>
+        <v>0.22152271525427467</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>0.12211564528877732</v>
+        <v>0.17754374202040241</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>0.18022977874046997</v>
+        <v>0.18923507778358969</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>0.13757830975056085</v>
+        <v>0.18907634352225666</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>0.13487335648104265</v>
+        <v>0.15563371174675122</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>0.19371709035192569</v>
+        <v>0.13786723363121256</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>0.20712393795319589</v>
+        <v>0.11905049739837006</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>0.21082527231643411</v>
+        <v>0.12562466694761315</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>0.19717069127030817</v>
+        <v>0.14931659632462138</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>0.19718701164274666</v>
+        <v>0.18369936636086615</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>0.25189763822905464</v>
+        <v>0.19028104384350716</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>0.22569772683628658</v>
+        <v>0.18131067482206503</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>0.2087685593902642</v>
+        <v>0.17225544685651784</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>0.18490405165976001</v>
+        <v>0.17751502532324709</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>0.16368014035565709</v>
+        <v>0.16494952160059406</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>0.15148319309888389</v>
+        <v>0.13326381698089593</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>0.16620830920161683</v>
+        <v>8.9511896707980057E-2</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>0.16255277247908587</v>
+        <v>0.11085158926365621</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>0.13085566451467801</v>
+        <v>4.4442637969433138E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>0.1809599934813611</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>0.14472120894228416</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>0.12822305627429864</v>
+        <v>3.848451316662882E-2</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>0.12619808410062766</v>
+        <v>9.5511978604151088E-2</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>6.6530768703998794E-2</v>
+        <v>0.11364726504350198</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>3.6678789385594067E-2</v>
+        <v>5.5847127884797523E-2</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>2.4432040112607554E-2</v>
+        <v>0.12617266240606614</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>2.4432040112607554E-2</v>
+        <v>0.10868856743762993</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>8.3046684483033123E-2</v>
+        <v>7.6115253246174214E-2</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>5.7673767683654717E-2</v>
+        <v>9.4162206663357409E-2</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>8.3190711667435371E-2</v>
+        <v>0.11653978490570001</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>8.1375068889877514E-2</v>
+        <v>0.11865330982149518</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>4.8571459826922771E-2</v>
+        <v>9.9062362865649192E-2</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>4.6975098549032548E-2</v>
+        <v>9.379973827273605E-2</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>5.8300059450476886E-2</v>
+        <v>0.11365842060783882</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>2.8248215012911165E-2</v>
+        <v>0.13194673305619414</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>5.972091327848815E-2</v>
+        <v>0.11822521931934075</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>9.7022748062845846E-2</v>
+        <v>0.13159252173182195</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>9.0715382181515952E-2</v>
+        <v>0.11670095791145145</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>0.1082297223465282</v>
+        <v>8.8893469855153742E-2</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>6.4954289712189278E-2</v>
+        <v>0.1054446237877341</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>8.1807130172307702E-2</v>
+        <v>9.2790766539912556E-2</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>7.5362340171473446E-2</v>
+        <v>0.12084279201869351</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>0.1263752031165937</v>
+        <v>0.10057153115358032</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>9.0091759096786683E-2</v>
+        <v>0.11683225222606451</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>0.15405870799074181</v>
+        <v>0.10035734038244659</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>0.14874564965661091</v>
+        <v>9.5624272956331122E-2</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>0.15784319030215788</v>
+        <v>0.11419110246035877</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>0.19986967890870275</v>
+        <v>0.14419883854132245</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>0.22827118547880915</v>
+        <v>0.14374858901936646</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>0.18945705540735153</v>
+        <v>0.10688834206010625</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>0.15127461215815785</v>
+        <v>0.10710933284193147</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>0.11502886819499188</v>
+        <v>0.10638498122485075</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>0.14672173253607818</v>
+        <v>0.15271831613756051</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>0.1365965586357811</v>
+        <v>0.14723216807702819</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>0.11671261612067028</v>
+        <v>0.12122268045378336</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>0.1153449365605126</v>
+        <v>7.0476583152063343E-2</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>0.14572631467191166</v>
+        <v>0.10045748485487559</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>0.13488004108338703</v>
+        <v>0.14215488664440909</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>0.14014088067128036</v>
+        <v>0.15999576961783585</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>5.9283878714174842E-2</v>
+        <v>0.11011988417255669</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>3.9586352064833671E-2</v>
+        <v>9.6917979444085409E-2</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>2.4432040112607554E-2</v>
+        <v>9.0883909365237076E-2</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>2.4432040112607554E-2</v>
+        <v>0.11293628771198319</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>2.4432040112607554E-2</v>
+        <v>0.11285342010934496</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>2.4432040112607554E-2</v>
+        <v>0.10149601732738284</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>2.4432040112607554E-2</v>
+        <v>6.8283639024311935E-2</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>3.9019211702104178E-2</v>
+        <v>3.6915930060324779E-2</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>8.1804563174379466E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>3.4963399933241719E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>8.6914885050440996E-2</v>
+        <v>3.1704616320178278E-2</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>0.12678335174377461</v>
+        <v>2.8330489662306661E-2</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>0.12528062369052365</v>
+        <v>4.0238384065081109E-2</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>0.17327216452158267</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>0.1744695040457574</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>0.13354639758683459</v>
+        <v>2.8806168672312577E-2</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>0.16608985791461045</v>
+        <v>6.0052463432824173E-2</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>0.23373681055634163</v>
+        <v>8.3321522937996356E-2</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>0.19802814622766385</v>
+        <v>6.4716607132914633E-2</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>0.15655029195278694</v>
+        <v>4.9284080027637095E-2</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>0.18829391102724277</v>
+        <v>3.3388243294629194E-2</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>0.17980472026768324</v>
+        <v>5.5813481603090846E-2</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>0.12719289717483878</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>0.16365895038320985</v>
+        <v>5.6035139966329389E-2</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>0.15207505419501557</v>
+        <v>4.4463712662958066E-2</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>0.11976109729815781</v>
+        <v>9.6602662162852612E-2</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>9.623219795714566E-2</v>
+        <v>3.2406855587811208E-2</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>7.6917473516250223E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>0.10561733280664136</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>6.4581046422691815E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>7.8106836956378017E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>0.10899775384249215</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>7.7052581220409561E-2</v>
+        <v>3.6721602252756183E-2</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>8.5861826321684306E-2</v>
+        <v>7.3236700401885665E-2</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>3.4955535725893133E-2</v>
+        <v>0.11122024332930167</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>5.3669811276126855E-2</v>
+        <v>0.14951317557415941</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>2.5870089522913912E-2</v>
+        <v>9.3190295673888174E-2</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>4.4923973147461195E-2</v>
+        <v>0.13683820938074603</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>5.7022041011126769E-2</v>
+        <v>0.18895194177740213</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>4.4395290606116911E-2</v>
+        <v>0.18117923953005394</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>2.4432040112607554E-2</v>
+        <v>0.18049208996948063</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>5.7723738025494575E-2</v>
+        <v>0.20773226056813571</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>6.1371039595083166E-2</v>
+        <v>0.21541448938408303</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>0.11464200908515354</v>
+        <v>0.1857593481755104</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>0.11092386545406509</v>
+        <v>0.19349960636104413</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>5.0483083140979733E-2</v>
+        <v>0.22907853378986456</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>0.10351026985672596</v>
+        <v>0.18613772699503991</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>9.0463035802211877E-2</v>
+        <v>0.20722685695632867</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>0.11827913278837968</v>
+        <v>0.1702523917420718</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>9.0201843195610684E-2</v>
+        <v>0.11580973142049089</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>0.10765429713819359</v>
+        <v>0.1199197204127202</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>0.13173155514915835</v>
+        <v>9.5506816785586243E-2</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>0.16054978285310922</v>
+        <v>6.2428885641482579E-2</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>0.17083751366105754</v>
+        <v>5.8256318971715598E-2</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>0.16266060214823541</v>
+        <v>7.0100253638573501E-2</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>0.16105336387863403</v>
+        <v>8.0384610279857285E-2</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>0.16477553632739925</v>
+        <v>7.0290633394438182E-2</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>0.13370667040430473</v>
+        <v>3.9341669802042081E-2</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>0.14704337867174111</v>
+        <v>4.2087027094764105E-2</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>0.10605286226102875</v>
+        <v>5.3819648997469827E-2</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>4.3144551391212822E-2</v>
+        <v>2.9116476672500911E-2</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>4.7470761264035065E-2</v>
+        <v>3.0494120767880488E-2</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>5.2667628475652428E-2</v>
+        <v>3.3239517265045017E-2</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>5.8499966574828276E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>0.11483981987122743</v>
+        <v>4.2183432809299065E-2</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>0.15179958226957188</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>0.20790240678953251</v>
+        <v>5.8553161076443032E-2</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>0.2065558369494804</v>
+        <v>4.151755586798677E-2</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>0.22816206570923808</v>
+        <v>5.3857970071635154E-2</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>0.19881944460035655</v>
+        <v>9.1813084426344518E-2</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>0.18292028660573667</v>
+        <v>5.5336384432909121E-2</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>0.11739395523212985</v>
+        <v>7.6051267144165935E-2</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>0.11557089069702679</v>
+        <v>6.6771914100289306E-2</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>0.14232432407453366</v>
+        <v>7.7492139177381417E-2</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>0.10179532675464389</v>
+        <v>0.13220872956631832</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>9.1110714113843583E-2</v>
+        <v>0.1603967248538245</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>6.5032690938686091E-2</v>
+        <v>0.17189035583037066</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>4.0513952624495669E-2</v>
+        <v>0.12705448518835136</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>6.6517093829218776E-2</v>
+        <v>8.5999663969836423E-2</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>6.7154772851912931E-2</v>
+        <v>3.6216571179975926E-2</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>8.9477951230128278E-2</v>
+        <v>0.10176644359903803</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>9.9838637832293228E-2</v>
+        <v>9.2811881833378448E-2</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>0.12763031660537555</v>
+        <v>9.3525037858521939E-2</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>5.0454756727312672E-2</v>
+        <v>9.5633172369568933E-2</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>2.5771691584727072E-2</v>
+        <v>2.8584683874090185E-2</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>2.4432040112607554E-2</v>
+        <v>9.1137249688293537E-2</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>3.180975323364052E-2</v>
+        <v>5.844950048425928E-2</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>6.3257563790308197E-2</v>
+        <v>8.7903814105903477E-2</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>4.3493392064358288E-2</v>
+        <v>9.5469394162692858E-2</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>2.9129548488319789E-2</v>
+        <v>9.7590967445194216E-2</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>2.4432040112607554E-2</v>
+        <v>0.11624270753848751</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>3.9959649207493876E-2</v>
+        <v>0.11549461865980711</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>4.2682219897433218E-2</v>
+        <v>0.11602339670807066</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>7.6153925680136389E-2</v>
+        <v>0.13492584248237638</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>5.0525742395987464E-2</v>
+        <v>0.12900902346466522</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>6.2154343554372597E-2</v>
+        <v>0.11649019216698754</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>7.30712920825414E-2</v>
+        <v>8.4494860997731402E-2</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>2.726745043612766E-2</v>
+        <v>0.1185781334760361</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>3.4006579190665305E-2</v>
+        <v>0.13976647449851726</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>8.5185828409662309E-2</v>
+        <v>0.17227958576773544</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>4.6004668470801341E-2</v>
+        <v>0.16579875142830058</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>3.0277308832413037E-2</v>
+        <v>0.21585627131951829</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>2.4432040112607554E-2</v>
+        <v>0.2554531641253277</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>5.1751225365297797E-2</v>
+        <v>0.24394681660112971</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>3.6395277664132926E-2</v>
+        <v>0.23608152127185147</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>5.7010255994166446E-2</v>
+        <v>0.20640928361360572</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>2.4432040112607554E-2</v>
+        <v>0.15505874292700994</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>2.4432040112607554E-2</v>
+        <v>0.13028379491462797</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>4.8011133082629748E-2</v>
+        <v>0.1063661544807202</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>6.5178753613987409E-2</v>
+        <v>0.12409019892891214</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>7.2610917286898613E-2</v>
+        <v>0.137100791443827</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>0.1023792208856393</v>
+        <v>0.15058186132986884</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>0.1012371893153052</v>
+        <v>0.17712359399024077</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>0.10254574297845682</v>
+        <v>0.20413700601029688</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>7.0644595333753113E-2</v>
+        <v>0.11771307555313515</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>6.9250087310137445E-2</v>
+        <v>0.11487939234950835</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>3.6458721979124177E-2</v>
+        <v>5.8420839091598564E-2</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>2.7563665245960482E-2</v>
+        <v>2.836168483690496E-2</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>7.1289754654196555E-2</v>
+        <v>3.2866633616929791E-2</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>8.1697916644297083E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>9.268852226709913E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>0.1077619244900892</v>
+        <v>3.007113669990321E-2</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>0.14409084558810373</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>0.15790668799970514</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>0.15385042684345443</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>0.13348292784963664</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>0.14838671238403042</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>8.6894679506760733E-2</v>
+        <v>3.6669550666956208E-2</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>8.5687451922463881E-2</v>
+        <v>5.5280924167868228E-2</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>0.11431158926815496</v>
+        <v>4.2758527739418704E-2</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>0.10277009931667465</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>0.11849892811440364</v>
+        <v>3.3868519591990116E-2</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>0.12002822170373559</v>
+        <v>2.8081778190469437E-2</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>0.13519444457607266</v>
+        <v>4.4843723451536248E-2</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>0.11376335249811351</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>0.16535132593513255</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>0.17199294265587678</v>
+        <v>2.8862996690760204E-2</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>0.1698037672603441</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>0.12345396063531033</v>
+        <v>3.2547932181785026E-2</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>0.11259337663787769</v>
+        <v>3.3729965726636939E-2</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>6.1795546507453523E-2</v>
+        <v>2.9885255782535317E-2</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>5.1995774214678117E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>2.4432040112607554E-2</v>
+        <v>4.0419643875917156E-2</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>2.4432040112607554E-2</v>
+        <v>6.0508901160494274E-2</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>2.7821173759560159E-2</v>
+        <v>6.6961258961682743E-2</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>2.4432040112607554E-2</v>
+        <v>9.1532155471220289E-2</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>6.6999381867367161E-2</v>
+        <v>0.14150312515634836</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>0.11012136945227025</v>
+        <v>0.11501518387290278</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>0.15332774603499397</v>
+        <v>0.13478108985446094</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>0.16702483608826091</v>
+        <v>8.00943470026073E-2</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>0.18633053166353206</v>
+        <v>8.1239511258831471E-2</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>0.15688263636969732</v>
+        <v>7.4936556729113951E-2</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>0.1551432545503576</v>
+        <v>4.612457603415808E-2</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>0.11180696495823139</v>
+        <v>0.11033914620177229</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>0.11590783684738133</v>
+        <v>9.562428357513432E-2</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>0.14979900649681338</v>
+        <v>0.14749981582291952</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>0.10745655348721964</v>
+        <v>0.13543687017290618</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>9.6910120784903742E-2</v>
+        <v>7.9028353489826383E-2</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>4.7950494038685551E-2</v>
+        <v>6.4681527866185223E-2</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>6.5519239930371453E-2</v>
+        <v>0.10419134466644266</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>0.1040556013120902</v>
+        <v>8.1186491240214168E-2</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>0.13855673940585297</v>
+        <v>0.14707315500961082</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>9.9309426655013203E-2</v>
+        <v>9.8505819336633951E-2</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>7.29695267767725E-2</v>
+        <v>9.3667673631372475E-2</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>6.7912144833517638E-2</v>
+        <v>8.5034736540095759E-2</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>5.4332481155042765E-2</v>
+        <v>6.9236670385905016E-2</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>3.9153258971495679E-2</v>
+        <v>0.10263053453516524</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>2.4432040112607554E-2</v>
+        <v>0.16161091240259917</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>3.8496632648670606E-2</v>
+        <v>9.6446786829343281E-2</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>3.3043966489398995E-2</v>
+        <v>5.2674435767448118E-2</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>5.1243032152419057E-2</v>
+        <v>5.4621086517875082E-2</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>5.8408474870639812E-2</v>
+        <v>7.6587454983564215E-2</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>2.4432040112607554E-2</v>
+        <v>8.5153742806272706E-2</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>2.4432040112607554E-2</v>
+        <v>8.0477031345948857E-2</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>4.2296024318318512E-2</v>
+        <v>5.4240953857707538E-2</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>7.311874607449928E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>6.1360353900825691E-2</v>
+        <v>7.6728820210132984E-2</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>7.6565123911831415E-2</v>
+        <v>0.10741954143054559</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>8.2245759903747634E-2</v>
+        <v>0.10916374974201148</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>0.11027816919590371</v>
+        <v>8.7339417242152578E-2</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>0.17175451060888006</v>
+        <v>8.5880142647876884E-2</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>0.13458516665287681</v>
+        <v>3.6253260996182049E-2</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>0.19939905020993101</v>
+        <v>3.4689122327591242E-2</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>0.19828192070903794</v>
+        <v>4.1706603356526942E-2</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>0.16352186313874742</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>0.13012668479247796</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>0.12925847094860132</v>
+        <v>7.1107452948942759E-2</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>0.12910691099866606</v>
+        <v>0.11213381393394327</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>0.1380343750148483</v>
+        <v>0.12062845194248181</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>0.16035149176773697</v>
+        <v>0.14076901613183698</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>0.16607874549310561</v>
+        <v>0.1226743349863901</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>0.12543649161897558</v>
+        <v>0.11496959763587103</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>9.8005064416203699E-2</v>
+        <v>0.13119846248880096</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>7.0186997968084808E-2</v>
+        <v>0.13249867762836667</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>5.0647496271524609E-2</v>
+        <v>0.11868596702603271</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>6.056168313528245E-2</v>
+        <v>0.10899509150869521</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>7.0019375940312045E-2</v>
+        <v>7.1625642993398131E-2</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>6.1276106625270305E-2</v>
+        <v>6.3288740175796124E-2</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>3.3196454384621384E-2</v>
+        <v>0.1116689015529127</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>2.6812074369725505E-2</v>
+        <v>0.18714220285946773</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>4.0710775323233465E-2</v>
+        <v>0.1829426523476709</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>3.7424042953440546E-2</v>
+        <v>0.15304902548626809</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>7.9939395407096839E-2</v>
+        <v>0.1188312891647986</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>5.2389762857980415E-2</v>
+        <v>0.10023078968489664</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>6.045454675374478E-2</v>
+        <v>3.0800025118108851E-2</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>9.627669397040732E-2</v>
+        <v>2.7892466760511204E-2</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>6.5429941320954893E-2</v>
+        <v>6.0695110790269236E-2</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>6.2287900883439849E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>2.9282648015706816E-2</v>
+        <v>3.1945327879763841E-2</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>2.4432040112607554E-2</v>
+        <v>3.722029880213016E-2</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>2.4432040112607554E-2</v>
+        <v>7.279890781064087E-2</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>2.4432040112607554E-2</v>
+        <v>8.3133834783164065E-2</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>3.2236813441981697E-2</v>
+        <v>8.974586421008518E-2</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>2.7645459755672813E-2</v>
+        <v>8.5815888161788562E-2</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>4.1432286473879164E-2</v>
+        <v>4.7680987595307832E-2</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>7.155433001415859E-2</v>
+        <v>3.2022500446039041E-2</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>8.1467558955188105E-2</v>
+        <v>8.4504162111572675E-2</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>0.10467133290944593</v>
+        <v>0.12322550556023006</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>0.12623051856525686</v>
+        <v>0.15353804728284898</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>0.20001755724855427</v>
+        <v>0.1160611206479316</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>0.21691561774204274</v>
+        <v>0.11015638517087581</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>0.15818286366318984</v>
+        <v>0.1185717477251796</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>0.16182988542806773</v>
+        <v>9.9230929057052053E-2</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>0.1776516209519961</v>
+        <v>0.11179782259157219</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>0.20183423870176709</v>
+        <v>9.2534368709016601E-2</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>0.22063427574920841</v>
+        <v>0.10328252698121798</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>0.19496857534221454</v>
+        <v>7.0310926543501295E-2</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>0.18786278001893114</v>
+        <v>4.3691735203898747E-2</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>0.19166928213033144</v>
+        <v>3.8731405782900574E-2</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>0.19098096465244629</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>0.2506179059649461</v>
+        <v>3.6592073448911536E-2</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>0.18645870336473558</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>0.20730898066861575</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>0.23811400860192733</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>0.20829278091631248</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>0.21608059309820982</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>0.20403914963400877</v>
+        <v>3.1754676221967718E-2</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>0.16119768734988427</v>
+        <v>0.11267669647485509</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>0.15820708252779564</v>
+        <v>0.11251678749865371</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>0.20748396282707499</v>
+        <v>8.5035138640558769E-2</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>0.18556001677616579</v>
+        <v>6.4647254927567593E-2</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>0.19886894003235567</v>
+        <v>3.0674409658419201E-2</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>0.15336302063770696</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>0.11678327356778874</v>
+        <v>6.6396851409980584E-2</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>7.2033900102146844E-2</v>
+        <v>9.1523601841450253E-2</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>3.0823828082474886E-2</v>
+        <v>9.3227144746664783E-2</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>2.4432040112607554E-2</v>
+        <v>8.3614528708186253E-2</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>2.4432040112607554E-2</v>
+        <v>9.9036967888182309E-2</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>2.4432040112607554E-2</v>
+        <v>0.10696969119279903</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>2.4432040112607554E-2</v>
+        <v>4.0739221686616034E-2</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>2.4432040112607554E-2</v>
+        <v>2.7881941588424445E-2</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>2.4432040112607554E-2</v>
+        <v>2.7963446490371455E-2</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>5.29895119088983E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>5.2133955283673782E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>6.4102888880254408E-2</v>
+        <v>5.2803016836076237E-2</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>0.11438584143076047</v>
+        <v>0.10731886023126504</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>0.13313917301437855</v>
+        <v>0.12254426634187791</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>0.13250647211830094</v>
+        <v>0.12791177240307575</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>0.16371107759341855</v>
+        <v>9.5509647151529292E-2</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>0.23139063832087767</v>
+        <v>6.6899639042295345E-2</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>0.2043539215158891</v>
+        <v>6.2057952592099813E-2</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>0.22406651458518659</v>
+        <v>6.1611028311494814E-2</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>0.18751977952219984</v>
+        <v>6.3724220141656421E-2</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>0.13835532600008491</v>
+        <v>8.9277095811063426E-2</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>0.11065635145767697</v>
+        <v>9.6566007026932438E-2</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>0.10441266086177234</v>
+        <v>0.11620760450417572</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>4.0461330313309972E-2</v>
+        <v>0.12007085732230433</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>2.4432040112607554E-2</v>
+        <v>9.06286993665089E-2</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>2.4432040112607554E-2</v>
+        <v>8.3809632510672999E-2</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>3.7611370041167901E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>5.9486956335203373E-2</v>
+        <v>3.5263874373511785E-2</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>7.2026736894075252E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>6.46026545854224E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>8.0097940239189244E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>0.16040391276545338</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>0.21983463232178119</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>0.20859036257556446</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>0.24691260779105328</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>0.21565445686078827</v>
+        <v>4.5689801728748335E-2</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>0.21825777991528689</v>
+        <v>3.2360624675195175E-2</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>0.21386883883776817</v>
+        <v>3.490371714314331E-2</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>0.23027691983330006</v>
+        <v>3.7084729243129236E-2</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>0.18008826612878848</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>0.19356228756190952</v>
+        <v>3.8570396515579537E-2</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>0.19121288759463845</v>
+        <v>6.3641295085358845E-2</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>0.19430535794680925</v>
+        <v>5.7011828475439147E-2</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>0.15211085516256792</v>
+        <v>4.5926681338891141E-2</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>0.13314262999684928</v>
+        <v>4.9603957653525675E-2</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>7.725368236561081E-2</v>
+        <v>4.0955353427719818E-2</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>5.2555558631540288E-2</v>
+        <v>3.1739306538023732E-2</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>2.8029796412057644E-2</v>
+        <v>6.0571183845532499E-2</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>2.8149973572769563E-2</v>
+        <v>5.4888453151660264E-2</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>4.9283616502432293E-2</v>
+        <v>2.8681133353906707E-2</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>3.0657454242360369E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>5.9773883379736277E-2</v>
+        <v>3.4555893316234695E-2</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>8.9318879792728068E-2</v>
+        <v>3.6652514383020127E-2</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>3.877400718201824E-2</v>
+        <v>3.9379597192226626E-2</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>5.9229471346727403E-2</v>
+        <v>6.0461157433070747E-2</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>5.3157362285517706E-2</v>
+        <v>3.9566794463508033E-2</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>9.6213286637822304E-2</v>
+        <v>4.8220322709302037E-2</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>0.12395058995130681</v>
+        <v>6.5709101970508749E-2</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>0.10789896099765606</v>
+        <v>7.7086026285705031E-2</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>0.1131741946434608</v>
+        <v>5.3056974862832618E-2</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>0.12621141117473458</v>
+        <v>8.3591921862841034E-2</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>4.3701540276758211E-2</v>
+        <v>4.4972845375833653E-2</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>2.9097519173950107E-2</v>
+        <v>4.6443630116361247E-2</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>2.4432040112607554E-2</v>
+        <v>3.8660583296930694E-2</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>2.4432040112607554E-2</v>
+        <v>4.7186131577015553E-2</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>2.4432040112607554E-2</v>
+        <v>7.7208345262940278E-2</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>4.3719319233781383E-2</v>
+        <v>3.6416570427060251E-2</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>2.9114252294506739E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>6.0200341907095285E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>3.3356407424155951E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>5.9322883774053904E-2</v>
+        <v>6.3454204735450784E-2</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>8.0432361130690494E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>9.6539084429510993E-2</v>
+        <v>4.8055071810594305E-2</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>6.0176982609236478E-2</v>
+        <v>4.4737159318974838E-2</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>5.3743619205847887E-2</v>
+        <v>4.0603305963317488E-2</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>4.012328851621149E-2</v>
+        <v>4.3367753370839028E-2</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>2.4432040112607554E-2</v>
+        <v>4.2225056117799406E-2</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>2.4432040112607554E-2</v>
+        <v>6.4124829804174471E-2</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>2.4432040112607554E-2</v>
+        <v>3.6527091493723428E-2</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>2.4432040112607554E-2</v>
+        <v>4.2435236219518585E-2</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>2.4432040112607554E-2</v>
+        <v>7.6508720861823504E-2</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>2.4432040112607554E-2</v>
+        <v>9.4451660214589603E-2</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>3.8512866309486325E-2</v>
+        <v>4.6048104094752094E-2</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>2.4432040112607554E-2</v>
+        <v>9.6460147465531151E-2</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>2.4432040112607554E-2</v>
+        <v>7.8571417641486924E-2</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>3.5800928414869884E-2</v>
+        <v>7.7570284087607536E-2</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>4.125109048586767E-2</v>
+        <v>6.6825993905162542E-2</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>2.4432040112607554E-2</v>
+        <v>8.7762588148788651E-2</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>2.4432040112607554E-2</v>
+        <v>6.7500312412198102E-2</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>2.4432040112607554E-2</v>
+        <v>5.7364384191208803E-2</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>2.4432040112607554E-2</v>
+        <v>0.10128798391220618</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>2.4432040112607554E-2</v>
+        <v>0.14949791619340927</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>2.4432040112607554E-2</v>
+        <v>0.16506032547654365</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>2.4432040112607554E-2</v>
+        <v>0.17311260758629332</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>5.6167298318929498E-2</v>
+        <v>0.2084144291227534</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>5.8633677068561395E-2</v>
+        <v>0.22047844888679768</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>7.9796841989051875E-2</v>
+        <v>0.23448369609549399</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>7.3409499362756633E-2</v>
+        <v>0.15050206491222665</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>2.4432040112607554E-2</v>
+        <v>0.13607094537486436</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>2.4432040112607554E-2</v>
+        <v>0.11587717936809362</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>2.4432040112607554E-2</v>
+        <v>9.2776510726153102E-2</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>2.4432040112607554E-2</v>
+        <v>3.3925674130258987E-2</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>3.7025364130144872E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>2.9876341171167473E-2</v>
+        <v>3.7639293414045961E-2</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>2.4432040112607554E-2</v>
+        <v>7.7843146832612273E-2</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>2.4432040112607554E-2</v>
+        <v>9.0337233847470513E-2</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>2.4432040112607554E-2</v>
+        <v>0.10510049195369754</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>2.4432040112607554E-2</v>
+        <v>0.10971024884627621</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>3.9857200535290918E-2</v>
+        <v>9.2459193380064572E-2</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>4.5670140337686946E-2</v>
+        <v>0.1088272561425833</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>6.1219896633745739E-2</v>
+        <v>7.4569171932661368E-2</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>4.6658236458734431E-2</v>
+        <v>3.8567757549976885E-2</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>0.11336335105508073</v>
+        <v>8.7350860800177482E-2</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>0.11304606981980785</v>
+        <v>4.6376665086837202E-2</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>7.8860685774564246E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>3.7946886563335849E-2</v>
+        <v>3.253096442978208E-2</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>4.0491559841434197E-2</v>
+        <v>7.3370312740031363E-2</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>3.0952028578256033E-2</v>
+        <v>5.287326711647504E-2</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>2.4432040112607554E-2</v>
+        <v>4.0379222249726267E-2</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>2.4432040112607554E-2</v>
+        <v>5.5994716861673163E-2</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>2.4432040112607554E-2</v>
+        <v>3.9418118516503689E-2</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>3.9636794165164267E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>9.9250997175942268E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>0.12057105397341411</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>0.10554669842496266</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>0.14716608523570701</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>0.15120629501482977</v>
+        <v>3.0025851814795317E-2</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>7.2158244760438195E-2</v>
+        <v>5.2252153904895342E-2</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>6.5822003192060358E-2</v>
+        <v>0.10249063487281575</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>6.6851432264158073E-2</v>
+        <v>4.618393822245561E-2</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>8.3370273850104842E-2</v>
+        <v>4.4936358284586718E-2</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>7.5671489113019894E-2</v>
+        <v>5.1580267721412824E-2</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>0.11223551148279917</v>
+        <v>8.6614042458791909E-2</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>6.5107360881512324E-2</v>
+        <v>8.7528786029629393E-2</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>0.14444208401716774</v>
+        <v>9.3902578227585354E-2</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>0.18390217364129174</v>
+        <v>0.1181549064573149</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>0.16822376657620747</v>
+        <v>0.10092245078610802</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>0.17111101757812075</v>
+        <v>0.12483740664463722</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>0.13526252626752255</v>
+        <v>0.13860183450501071</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>9.933505191861032E-2</v>
+        <v>0.14732023091789448</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>9.8629602402416319E-2</v>
+        <v>0.13294055654674658</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>0.12813326614387827</v>
+        <v>0.1637655864385705</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>0.1542294993524137</v>
+        <v>0.12220935831621123</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>0.21911213279242661</v>
+        <v>0.16729533589339732</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>0.19904447336569275</v>
+        <v>0.12554584571505256</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>0.18339894622845607</v>
+        <v>0.14202363179499444</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>8.5244260935853911E-2</v>
+        <v>0.14352892388695951</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>7.2792341561816035E-2</v>
+        <v>0.20259048944394537</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>7.5655124326956855E-2</v>
+        <v>0.15496657613481851</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>7.4896774594920015E-2</v>
+        <v>0.15127386410992799</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>5.3041489015859165E-2</v>
+        <v>0.12416838460762482</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>2.4432040112607554E-2</v>
+        <v>0.1416196513728443</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>2.4432040112607554E-2</v>
+        <v>8.9508074894234887E-2</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>8.5252224059763251E-2</v>
+        <v>4.3663337484895245E-2</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>5.367990438992197E-2</v>
+        <v>7.0012621029558991E-2</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>5.3002772143397346E-2</v>
+        <v>0.11596749638501466</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>2.4868429884492473E-2</v>
+        <v>0.10206384935933938</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>5.3489150665716773E-2</v>
+        <v>0.12877688084428976</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>7.7101712409439194E-2</v>
+        <v>0.11838609903710753</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>8.0234947318505931E-2</v>
+        <v>0.13943205893842156</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>7.6483663917488606E-2</v>
+        <v>4.4927855714079104E-2</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>0.12316634717997843</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>0.13793618083080103</v>
+        <v>3.286459221151769E-2</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>0.13264487403592812</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>0.13227883105982494</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>0.17855586588450659</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>0.18780333674593455</v>
+        <v>3.1238209078795265E-2</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>0.18907464235325683</v>
+        <v>8.1394083354457511E-2</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>0.20024784465761974</v>
+        <v>7.2346948442957137E-2</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>0.18867919586678128</v>
+        <v>7.204129683629816E-2</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>0.14814230218594518</v>
+        <v>0.12089778892681573</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>0.15467986802626107</v>
+        <v>9.4776948524797289E-2</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>9.4819857261637927E-2</v>
+        <v>6.2002908477471919E-2</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>6.9333955812351564E-2</v>
+        <v>6.6751944861144177E-2</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>0.1021469903901922</v>
+        <v>6.8788022502654131E-2</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>7.6048777696099829E-2</v>
+        <v>0.12302799821995319</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>8.2796700260202985E-2</v>
+        <v>0.20020074441292265</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>7.3497978655684568E-2</v>
+        <v>0.22024783704798145</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>8.0580488695222635E-2</v>
+        <v>0.18228626707696743</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>9.2188160638959224E-2</v>
+        <v>0.24325455873685503</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>7.3068407642370506E-2</v>
+        <v>0.21034852887950795</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>2.4432040112607554E-2</v>
+        <v>0.19237648995154077</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>4.8677517781104337E-2</v>
+        <v>0.23756000867530203</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>3.398047137598411E-2</v>
+        <v>0.21473956343701336</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>4.1166388007183384E-2</v>
+        <v>0.20824196354177973</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>6.9395680473798169E-2</v>
+        <v>0.2105546102645508</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>3.6992360930885523E-2</v>
+        <v>0.22101835052790564</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>7.3453254238686302E-2</v>
+        <v>0.12517740910089839</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>9.5738695811424301E-2</v>
+        <v>6.879595771288205E-2</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>9.673984571878011E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>8.1892629105653814E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>0.11934246373468685</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>0.1299138055262069</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>0.14283802517645525</v>
+        <v>5.6920166251858806E-2</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>0.22695579632714188</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>0.23577158859484609</v>
+        <v>4.2003314562754475E-2</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>0.26482413944401728</v>
+        <v>4.1984587582935523E-2</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>0.25161957503063764</v>
+        <v>3.8422036124975023E-2</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>0.30068581756633467</v>
+        <v>7.0294113206689102E-2</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>0.28421142717556719</v>
+        <v>5.5162136099658296E-2</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>0.2386392003774028</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>0.22787574962697149</v>
+        <v>5.7494598655089241E-2</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>0.16114535353077591</v>
+        <v>0.11423552783201352</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>0.19662497655549338</v>
+        <v>0.1013019638343793</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>0.14914273804331879</v>
+        <v>0.10358400672912596</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>0.15277209204836914</v>
+        <v>0.17834589740783191</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>0.17725732508146083</v>
+        <v>0.18699503842627482</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>0.18616770573116201</v>
+        <v>0.18224881323354603</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>0.19100176912015179</v>
+        <v>0.22561954716103494</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>0.15442988395525614</v>
+        <v>0.18739976633149261</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>0.14660011869306952</v>
+        <v>0.23489120348268211</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>0.17192746273460083</v>
+        <v>0.18683934541686578</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>0.13966486137946085</v>
+        <v>0.19725451316921269</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>9.342136820185129E-2</v>
+        <v>0.18913386951774272</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>6.7918732969965881E-2</v>
+        <v>0.21754739300176326</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>9.4016531036203888E-2</v>
+        <v>0.24128230242255014</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>8.2081746239569903E-2</v>
+        <v>0.25567049276791803</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>8.7035168532093671E-2</v>
+        <v>0.26920516621861157</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>3.3647503183461672E-2</v>
+        <v>0.23708492766538644</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>2.4432040112607554E-2</v>
+        <v>0.23684051232009518</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>2.4432040112607554E-2</v>
+        <v>0.23439623566953735</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>2.4432040112607554E-2</v>
+        <v>0.17754941494670859</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>5.3053663115767737E-2</v>
+        <v>0.17514085673580712</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>8.4877836764897407E-2</v>
+        <v>0.12945160095003128</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>3.6307804345819407E-2</v>
+        <v>7.4235345955857485E-2</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>4.2734974278652728E-2</v>
+        <v>5.1998719155293416E-2</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>2.4432040112607554E-2</v>
+        <v>3.3482873011532875E-2</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>2.4432040112607554E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>2.5846072972910156E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>7.1873301846332449E-2</v>
+        <v>6.4730770313687055E-2</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>8.2033400824770772E-2</v>
+        <v>3.8151577502392744E-2</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>5.9012582651065744E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>8.428271852083942E-2</v>
+        <v>4.4558285391704471E-2</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>0.11072475431014588</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>0.11150863341968577</v>
+        <v>5.4014469583662045E-2</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>0.18219023097460357</v>
+        <v>2.8750757642361052E-2</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>0.1692576366491611</v>
+        <v>4.352510381492835E-2</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>0.14725371418831454</v>
+        <v>7.6106384404611774E-2</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>0.15977356708250551</v>
+        <v>0.10126824037734759</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>0.11022787648000405</v>
+        <v>8.9507416655870989E-2</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>9.2844673490375493E-2</v>
+        <v>0.13178968336381261</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>7.242239566987492E-2</v>
+        <v>0.15965330576887693</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>0.11543875871143369</v>
+        <v>0.132172497273776</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>0.13488022243780509</v>
+        <v>0.14903189638483594</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>0.15005849557560239</v>
+        <v>8.6741247553960329E-2</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>0.17486107979577642</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>0.19774473550784211</v>
+        <v>3.3449297072298594E-2</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>0.19066724395687118</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>0.13578003260893481</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>7.5276799214042081E-2</v>
+        <v>3.1097948003898621E-2</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>7.4539531362690717E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>0.12739275270520112</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>0.15037233350564655</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>0.17940988553156295</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>0.23180571315473553</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>0.20580701991215483</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>0.17617039910415175</v>
+        <v>4.7675424611121932E-2</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>0.20572195073770694</v>
+        <v>8.6125434901027018E-2</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>0.17331680250409481</v>
+        <v>8.4704341753354617E-2</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>0.23952355727527569</v>
+        <v>0.15438639069335486</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>0.25888228100059929</v>
+        <v>0.19196066285340316</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>0.2265319528916073</v>
+        <v>0.23809963702739817</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>0.20450828204511934</v>
+        <v>0.19701451619510424</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>0.21335714923792329</v>
+        <v>0.17369336982017805</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>0.2281150896124087</v>
+        <v>0.18385266706202119</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>0.25728073347323377</v>
+        <v>0.1919570625417204</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>0.2574425321844469</v>
+        <v>0.1954506636135637</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>0.21255253313977887</v>
+        <v>0.17249547599154255</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>0.20674388751631739</v>
+        <v>0.18154119848635469</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>0.14705014891996088</v>
+        <v>0.20456472597647538</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>0.16057846778953644</v>
+        <v>0.15996214964869804</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>0.17329244856504755</v>
+        <v>0.16812719929916162</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>0.17122683479117518</v>
+        <v>0.10501246250365764</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>0.13360899374745849</v>
+        <v>0.13647958972908514</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>0.17098054306039934</v>
+        <v>0.14059320568850234</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>0.1970017613773154</v>
+        <v>0.1103898717179395</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>0.16520419516187679</v>
+        <v>7.011011049289427E-2</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>0.11431545909643112</v>
+        <v>7.4078525133353279E-2</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>0.14369860131842449</v>
+        <v>0.10124712143589459</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>0.15846807406113372</v>
+        <v>0.1267899768093228</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>0.1534611371127021</v>
+        <v>0.12698187895510471</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>0.15600032131449557</v>
+        <v>0.15270592229806734</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>0.17310273336023635</v>
+        <v>0.18036441205659801</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>0.15183297624683839</v>
+        <v>0.16614931818911335</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>0.19763062907029841</v>
+        <v>0.17219447155206519</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>0.20099712692170107</v>
+        <v>0.23109948280587034</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>0.16718356029532577</v>
+        <v>0.23993874257604553</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>0.14413952009949565</v>
+        <v>0.22826080024537987</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>0.18867975126855696</v>
+        <v>0.25040251995815532</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>0.15935999861723157</v>
+        <v>0.21371731634464949</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>0.1178632337070572</v>
+        <v>0.29554454683574938</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>0.15207676103176956</v>
+        <v>0.26305949326723976</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>0.15681002431258428</v>
+        <v>0.2359913484846963</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>0.22395862951609125</v>
+        <v>0.20274615288223485</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>0.20557468927076494</v>
+        <v>0.15312473751517403</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>0.21823316664065318</v>
+        <v>0.11459468543610027</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>0.20839937576098372</v>
+        <v>9.5410859003579152E-2</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>0.21407378395074625</v>
+        <v>5.7784835540762906E-2</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>0.15223329543947373</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>0.15464435665218537</v>
+        <v>6.3450605637922597E-2</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>0.17400728054924447</v>
+        <v>5.2394544264770158E-2</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>0.16683822961744665</v>
+        <v>3.1092087176775286E-2</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>0.14825883070381568</v>
+        <v>7.3017015468425317E-2</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>0.14342939362953894</v>
+        <v>4.0716210388923153E-2</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>6.9219860703609318E-2</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>0.10812772246361713</v>
+        <v>2.7857358298376898E-2</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>0.11580610039532009</v>
+        <v>2.703720939921592E-2</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>0.13003535806166591</v>
+        <v>4.2818278670525199E-2</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>0.14702193146077508</v>
+        <v>6.3932156085124189E-2</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>0.15092906705725795</v>
+        <v>4.0374213414445546E-2</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>0.19226466830914096</v>
+        <v>6.6138514200478643E-2</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>0.1471692277069036</v>
+        <v>0.10380098283904812</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>0.13904995437724085</v>
+        <v>0.11655899921239309</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>0.16986536483192011</v>
+        <v>0.11535296562518631</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>0.16261024921994305</v>
+        <v>0.11917578030858082</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>0.17757885981594007</v>
+        <v>0.18164767115252856</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>0.11657325086185896</v>
+        <v>0.19456067060002269</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>0.12405638378451879</v>
+        <v>0.20679354896422536</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>0.15559382013897377</v>
+        <v>0.23779243621261581</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>7.5498325903109592E-2</v>
+        <v>0.20983193802954503</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>6.6072453792405658E-2</v>
+        <v>0.20635683708313859</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>3.0873361341170323E-2</v>
+        <v>0.15739247346460666</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>2.4432040112607554E-2</v>
+        <v>0.12881488873977898</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>3.7423672308504768E-2</v>
+        <v>0.14274637397379192</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>6.8715135705584046E-2</v>
+        <v>0.15888787049540443</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>6.0631232049271511E-2</v>
+        <v>0.20417304332341252</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>4.4542536363046031E-2</v>
+        <v>0.15624019088018273</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>0.10049144299840372</v>
+        <v>0.19781200354171485</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>9.436868683776159E-2</v>
+        <v>0.22678119083146933</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>0.10397606096183876</v>
+        <v>0.21291340460068892</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>8.9044514178336892E-2</v>
+        <v>0.16561575989125502</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>0.10308226595472425</v>
+        <v>0.16689237706500581</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>6.0292998368129257E-2</v>
+        <v>0.1917428169794971</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>5.9826012428535892E-2</v>
+        <v>0.1484270897099276</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>3.4737473513325658E-2</v>
+        <v>0.16394558719107866</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>3.0740270245143177E-2</v>
+        <v>0.12616424909328489</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>4.8256712983758193E-2</v>
+        <v>0.10713525858263122</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>0.10995614886206134</v>
+        <v>9.2082673963943415E-2</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>9.1254819879657681E-2</v>
+        <v>0.13101806626306708</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>0.10605779376860945</v>
+        <v>0.12933075003232405</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>8.7422447775195145E-2</v>
+        <v>0.16052820967422154</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>8.7751381900200848E-2</v>
+        <v>0.12804738834935303</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>0.17744493797721511</v>
+        <v>0.1318259150697394</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>0.1763237780572707</v>
+        <v>0.11677551927229497</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>0.14938133927810651</v>
+        <v>0.10363234299932909</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>0.17695785457492932</v>
+        <v>9.0867306473622234E-2</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>0.20058184964028275</v>
+        <v>0.12681971685304483</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>0.14167955739393692</v>
+        <v>0.14201533794672117</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>0.11504803817362179</v>
+        <v>0.12788054663640214</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>9.6190748158767506E-2</v>
+        <v>8.5387954671373403E-2</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>8.4806106325177003E-2</v>
+        <v>0.10875181149498904</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>8.5770526670217187E-2</v>
+        <v>0.11401194896880595</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>6.5316503345552515E-2</v>
+        <v>9.5943758472812946E-2</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>7.7674964920675105E-2</v>
+        <v>7.6145909792462857E-2</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>9.093674971123486E-2</v>
+        <v>4.2688157732038226E-2</v>
       </c>
     </row>
   </sheetData>
@@ -5420,7 +5420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -410,5005 +410,5005 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.14650388135570033</v>
+        <v>4.3728318031660295E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.18490290668539222</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.18186572248848429</v>
+        <v>2.6837408192316271E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.13272305281318264</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>8.741393875002014E-2</v>
+        <v>3.0864966109616594E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.13192139423049559</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.13224098465702427</v>
+        <v>3.4985239134405044E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.16171275152464459</v>
+        <v>5.4955623191258664E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.19671201514247255</v>
+        <v>0.10907843279635479</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.1960394728297645</v>
+        <v>9.8932867364888752E-2</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.20691131636509957</v>
+        <v>3.2530394016992148E-2</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.23340431980189497</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.2105796786491026</v>
+        <v>5.8417124081762542E-2</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.19634094798365204</v>
+        <v>2.9729091711599032E-2</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0.14801243493774657</v>
+        <v>5.4729115912571659E-2</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.14202345979219</v>
+        <v>5.7601236874236149E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.10370379186222539</v>
+        <v>0.10275253140434032</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.10542367688187122</v>
+        <v>3.9280236605295643E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.16887824628342848</v>
+        <v>3.454869457003535E-2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.14318374959141855</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.13578095964985021</v>
+        <v>0.10859322826740614</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.14619781983247201</v>
+        <v>0.13230093137592377</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.17790285129679884</v>
+        <v>0.1732564799005534</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.14715693567570901</v>
+        <v>0.1311335959747737</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.13612822844163078</v>
+        <v>0.11073655225989966</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>7.60399262202517E-2</v>
+        <v>9.7912871794305023E-2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>4.1610743777837272E-2</v>
+        <v>0.13119642552484298</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2.703720939921592E-2</v>
+        <v>0.1171282815141282</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2.703720939921592E-2</v>
+        <v>0.13631056359528743</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2.703720939921592E-2</v>
+        <v>6.4016378511681404E-2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>3.5128554161927984E-2</v>
+        <v>5.2083730998013576E-2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>6.0633639831421449E-2</v>
+        <v>3.0663006747010162E-2</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2.703720939921592E-2</v>
+        <v>3.5403922739821486E-2</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2.703720939921592E-2</v>
+        <v>4.262092085087045E-2</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2.703720939921592E-2</v>
+        <v>4.3345775778583458E-2</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2.9787723330508897E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3.5620156665416264E-2</v>
+        <v>5.170576157382839E-2</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6.2500184750660187E-2</v>
+        <v>6.1481074511137331E-2</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5.1085131343834814E-2</v>
+        <v>5.1412858045452967E-2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>3.2491814266651764E-2</v>
+        <v>5.1440259673102208E-2</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2.703720939921592E-2</v>
+        <v>4.3566678958530891E-2</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>3.3952974677314535E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>7.2166586046513256E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>7.8997469468765694E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>9.3263139988863888E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.12070431136337116</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.10352809135788259</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.104716572550706</v>
+        <v>4.7090734899625578E-2</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7.9241260202527614E-2</v>
+        <v>6.1935142471729071E-2</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>9.289968139413618E-2</v>
+        <v>6.01104083769066E-2</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5.1997955112200338E-2</v>
+        <v>5.7948177125398258E-2</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.12029260073400287</v>
+        <v>3.5401174403277655E-2</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>7.0440165632612517E-2</v>
+        <v>6.3945428700589751E-2</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>3.9781706140870565E-2</v>
+        <v>5.8551276310151466E-2</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2.703720939921592E-2</v>
+        <v>3.7853169496088239E-2</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2.703720939921592E-2</v>
+        <v>7.7601299447428718E-2</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>9.1907457691384892E-2</v>
+        <v>6.836129165987323E-2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>4.1202796460281965E-2</v>
+        <v>4.9130899985911983E-2</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2.703720939921592E-2</v>
+        <v>4.0731296040162478E-2</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2.703720939921592E-2</v>
+        <v>9.5949736929693885E-2</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2.703720939921592E-2</v>
+        <v>0.14783912491624634</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2.8864856575736321E-2</v>
+        <v>0.15239446749909963</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3.5796170116966217E-2</v>
+        <v>0.10473562812411355</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>3.4644647737230611E-2</v>
+        <v>7.2947345657659146E-2</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2.9255448580696074E-2</v>
+        <v>6.5558313578556723E-2</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2.703720939921592E-2</v>
+        <v>8.9589964238974348E-2</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2.703720939921592E-2</v>
+        <v>4.5825296148012742E-2</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>3.4415872662616483E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3.1132409631587536E-2</v>
+        <v>3.150071853573097E-2</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2.703720939921592E-2</v>
+        <v>4.1155764379706458E-2</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2.703720939921592E-2</v>
+        <v>5.3539976551493174E-2</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>7.3694832577112748E-2</v>
+        <v>4.9059696979977925E-2</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>3.4403417699586283E-2</v>
+        <v>5.3832701075040221E-2</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>3.2655560422284236E-2</v>
+        <v>4.0039021753424178E-2</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>2.703720939921592E-2</v>
+        <v>6.4701045876199584E-2</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>2.703720939921592E-2</v>
+        <v>2.784899172779258E-2</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>5.1755173943997139E-2</v>
+        <v>3.8453523689512742E-2</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>5.0851937502740981E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>9.5631258552166462E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.14496340180769188</v>
+        <v>3.6460865620409358E-2</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.16057720037807313</v>
+        <v>6.5910838626333262E-2</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0.14224491426186708</v>
+        <v>3.3719259110550896E-2</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0.15998709339681233</v>
+        <v>6.9348447472143721E-2</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0.13980729419783464</v>
+        <v>8.9038958105037175E-2</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0.11380192962220814</v>
+        <v>8.4135326103279381E-2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>0.14705429340861886</v>
+        <v>7.5392372766027227E-2</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>0.15181145824804129</v>
+        <v>6.6539424645916875E-2</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>0.11732327845046914</v>
+        <v>5.5826685450656263E-2</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9.2444654878196711E-2</v>
+        <v>5.5635577511667922E-2</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>0.10225295410695348</v>
+        <v>5.629407886368544E-2</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6.1805446573860626E-2</v>
+        <v>8.1309287635308786E-2</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>6.4056662085287944E-2</v>
+        <v>0.12946933150659223</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>0.1107408437046402</v>
+        <v>0.14024063350568208</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>0.13367045070357256</v>
+        <v>0.12798030071292785</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.12731600579758404</v>
+        <v>0.14408787662723038</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.17620328616796652</v>
+        <v>0.14469766892578109</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.15876429745988566</v>
+        <v>0.10498190505509561</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.10523992983333726</v>
+        <v>0.13298278064686211</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.10658764963153886</v>
+        <v>0.13826449985989497</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>7.5524101813694788E-2</v>
+        <v>0.13756788554858612</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>3.7529059797500521E-2</v>
+        <v>0.14954244868679908</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>3.8980243407215905E-2</v>
+        <v>0.15247890369431052</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.1260795549407506</v>
+        <v>0.11528604498905554</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.13783944994700728</v>
+        <v>0.10586731651172028</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>9.7812356057365421E-2</v>
+        <v>9.7480953628859057E-2</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0.12556756872153438</v>
+        <v>7.6968390786838092E-2</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>9.7852999555766818E-2</v>
+        <v>0.13039508617085507</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0.10214609975654193</v>
+        <v>9.6557095436557078E-2</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0.12535569356489232</v>
+        <v>7.7666576527984435E-2</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>7.338686176682431E-2</v>
+        <v>5.3546764835293525E-2</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>4.7004158016307807E-2</v>
+        <v>2.4887461534868843E-2</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>4.3737701613387164E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>5.2167555819393557E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>7.7585664932115203E-2</v>
+        <v>6.3790161029216363E-2</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>0.11422825508345787</v>
+        <v>5.4947170232047593E-2</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>8.2996435370363025E-2</v>
+        <v>2.7707304491379574E-2</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>0.10930535212435052</v>
+        <v>7.1537338029909359E-2</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>5.551561651232087E-2</v>
+        <v>0.11018940552813912</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.10030337315030012</v>
+        <v>9.8810994521646642E-2</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.11442162630119715</v>
+        <v>4.8357986233151552E-2</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>9.6003749321639034E-2</v>
+        <v>3.6360658352024032E-2</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.13160766257259798</v>
+        <v>3.2928352862206064E-2</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.15264188190194786</v>
+        <v>3.9806950994991236E-2</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.17129502838188582</v>
+        <v>3.3560314751173333E-2</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.19142234962633858</v>
+        <v>4.4883298782908129E-2</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.1962199163636289</v>
+        <v>5.5736307811261356E-2</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.18234796643415349</v>
+        <v>2.4785775307863495E-2</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.21854062230184995</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.18776003636997315</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0.18786427529762315</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0.16176446037119402</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0.21426471363276495</v>
+        <v>2.525913991039154E-2</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0.17816832398634186</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>0.1400670457425415</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>0.10217279428326494</v>
+        <v>5.5064705132901653E-2</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>5.7223597536979261E-2</v>
+        <v>2.7731965004899488E-2</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>3.4452462435930822E-2</v>
+        <v>5.1139914440853404E-2</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2.703720939921592E-2</v>
+        <v>6.0913075474449449E-2</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>2.703720939921592E-2</v>
+        <v>5.8876241639851043E-2</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>3.461118127779314E-2</v>
+        <v>6.3405889696329959E-2</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>4.2421715626455372E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>4.8818615347249857E-2</v>
+        <v>6.6091765649447465E-2</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>8.5552529570788446E-2</v>
+        <v>6.7726551173609803E-2</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>3.6785235640886121E-2</v>
+        <v>6.7490564430750744E-2</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>5.6785103454121397E-2</v>
+        <v>4.4409612484508684E-2</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>8.8897968851714526E-2</v>
+        <v>4.3338058528262564E-2</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.14133336447095735</v>
+        <v>4.9510045649789954E-2</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.20585760831351502</v>
+        <v>6.158020503667503E-2</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.22194570077253975</v>
+        <v>4.9396283719449145E-2</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.2281103895943366</v>
+        <v>4.2445384733427301E-2</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.20073810013783711</v>
+        <v>0.10533823084337736</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.15420146666032244</v>
+        <v>3.3953357867413672E-2</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0.23077279645586607</v>
+        <v>0.10123898866666994</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0.20169385878405127</v>
+        <v>0.10909797456538446</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0.18793078792297821</v>
+        <v>0.13859397824296951</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0.25368000426625414</v>
+        <v>7.8409500762315953E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>0.23261779760399476</v>
+        <v>5.781578763106144E-2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>0.17888834400195891</v>
+        <v>4.8751310275087618E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>0.1629240404802825</v>
+        <v>6.0685034821100409E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>0.16461414051171167</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>0.16672653000292437</v>
+        <v>3.4562728899093634E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>0.20073196507335908</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>0.13040856026781403</v>
+        <v>2.6215438472055496E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>0.11535760853061626</v>
+        <v>4.1337323481693014E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>8.9734982978322511E-2</v>
+        <v>5.01352629850529E-2</v>
       </c>
       <c r="B172" s="1"/>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>6.1059673245262798E-2</v>
+        <v>8.3132198541830182E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>2.703720939921592E-2</v>
+        <v>0.11393029411016908</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>5.7203158430085006E-2</v>
+        <v>8.8458611494253131E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>8.224035009823899E-2</v>
+        <v>9.4250528471843995E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.11056262424454887</v>
+        <v>6.1024041091123506E-2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.14206563153841642</v>
+        <v>2.6475121543425986E-2</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.10041604683190447</v>
+        <v>4.9072093608198732E-2</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>7.9199078975398157E-2</v>
+        <v>4.857192161208998E-2</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.1380432470340234</v>
+        <v>4.6575045053433968E-2</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.1112202546929824</v>
+        <v>7.3676919050586612E-2</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.13116110990289923</v>
+        <v>9.1127479516201926E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0.14907417300865936</v>
+        <v>9.9875020154177402E-2</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>5.677245063069275E-2</v>
+        <v>0.13811823301906104</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>6.847775043397214E-2</v>
+        <v>0.16384866795690883</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>5.8865730054608607E-2</v>
+        <v>0.16535024868994921</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>4.971407485153595E-2</v>
+        <v>0.13585157935952746</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>2.703720939921592E-2</v>
+        <v>0.10914057571150125</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>4.9707309449351138E-2</v>
+        <v>0.1450193306436082</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>5.0215860789991594E-2</v>
+        <v>8.6091452420498829E-2</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>7.8713016201300043E-2</v>
+        <v>8.276486383368703E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>8.8543775592208732E-2</v>
+        <v>2.6895465478877126E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>6.5305848548326995E-2</v>
+        <v>5.2428810935062395E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3.6620934208642777E-2</v>
+        <v>7.8417233516995685E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>4.8015697699177108E-2</v>
+        <v>7.6336246974959998E-2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>4.2599167746908896E-2</v>
+        <v>7.2064003423047474E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>6.3175578296799872E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>6.4198964072241987E-2</v>
+        <v>3.7141564223662923E-2</v>
       </c>
       <c r="B199" s="1"/>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>7.1586870590916937E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>2.8895725547027795E-2</v>
+        <v>2.6465857815732612E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>4.7176589074824998E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>6.065789703880109E-2</v>
+        <v>3.3202740981773476E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>5.4493967980647103E-2</v>
+        <v>5.0967470964318834E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>3.0155480439310652E-2</v>
+        <v>7.6733539504026477E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>4.8227441163294499E-2</v>
+        <v>5.3353512487717532E-2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>3.2231667539184924E-2</v>
+        <v>6.6229195252015635E-2</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>2.703720939921592E-2</v>
+        <v>6.7929869712941515E-2</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>2.9574816962485311E-2</v>
+        <v>9.3092661435086529E-2</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>8.4147992058163645E-2</v>
+        <v>0.10791226049848388</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>8.9704278060783182E-2</v>
+        <v>0.13406816151577094</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>8.3480701825013104E-2</v>
+        <v>0.1247031437553207</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>9.2682345756608026E-2</v>
+        <v>0.11530427462102451</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>9.5713237951507144E-2</v>
+        <v>0.14475686539650556</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>5.6637063542071611E-2</v>
+        <v>6.9331619921540757E-2</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>7.2220238755143482E-2</v>
+        <v>5.2382045477248278E-2</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>0.10039881572544179</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>9.8430760536991735E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>5.5072329577439003E-2</v>
+        <v>3.8793793331743841E-2</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>8.6595242898104705E-2</v>
+        <v>6.2116489325707715E-2</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>6.4972743086941925E-2</v>
+        <v>3.3417097725381747E-2</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>8.2689422002922175E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>9.5546700675814805E-2</v>
+        <v>2.7531127813661054E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>9.1854284572047612E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.12216228827248134</v>
+        <v>3.0829198317807165E-2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.22544221751486312</v>
+        <v>4.0604011854725883E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.19491491296719929</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.20863299270870525</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.19933984776617447</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.18615966838840234</v>
+        <v>5.2222329127466723E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0.18841094793272814</v>
+        <v>3.505395206156136E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0.13747915620497941</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0.10817644381698888</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>6.8360448886822758E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
       <c r="B235" s="1"/>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>2.703720939921592E-2</v>
+        <v>2.4683972403921589E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>3.0214836555047173E-2</v>
+        <v>8.4508127597711341E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>9.4556989686309684E-2</v>
+        <v>0.1196568349800237</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>6.9092305844578109E-2</v>
+        <v>3.7994545156510788E-2</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>7.9994676152059935E-2</v>
+        <v>4.9794398619526517E-2</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>8.018829791253955E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>7.7727353898952814E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>2.7205437182522305E-2</v>
+        <v>2.8056243468064374E-2</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>2.703720939921592E-2</v>
+        <v>4.6363880458095794E-2</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>2.703720939921592E-2</v>
+        <v>3.8872183308314143E-2</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>7.7990651203886235E-2</v>
+        <v>8.6198643642136669E-2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>7.5373142535570078E-2</v>
+        <v>6.8198054653075144E-2</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>4.4371389673936279E-2</v>
+        <v>7.7071984996523818E-2</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>4.1283222550602849E-2</v>
+        <v>9.6745354104599293E-2</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>2.703720939921592E-2</v>
+        <v>9.6468410137752689E-2</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>2.703720939921592E-2</v>
+        <v>0.12258796372470274</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>2.9597198327960823E-2</v>
+        <v>0.12892440120164875</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>2.703720939921592E-2</v>
+        <v>9.8193768620355795E-2</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>3.8465588527791347E-2</v>
+        <v>3.9898639993377776E-2</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>2.9839151528922719E-2</v>
+        <v>9.6764733305950465E-2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>2.703720939921592E-2</v>
+        <v>7.3973018861755307E-2</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>2.703720939921592E-2</v>
+        <v>7.5407121494060245E-2</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>2.703720939921592E-2</v>
+        <v>9.1778573547667233E-2</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>2.703720939921592E-2</v>
+        <v>9.2685682186158191E-2</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>2.703720939921592E-2</v>
+        <v>6.0856847994721623E-2</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>5.6596164059218149E-2</v>
+        <v>4.6130276847754781E-2</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>5.1991666100370697E-2</v>
+        <v>4.2448070579955838E-2</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>9.5311153194498274E-2</v>
+        <v>8.736857166695948E-2</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>0.13227156430870221</v>
+        <v>5.7527005959786617E-2</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>0.14013039249597944</v>
+        <v>8.1235820430570704E-2</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>0.17146523825533336</v>
+        <v>8.9037733592892632E-2</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>0.20280043234595896</v>
+        <v>7.8735426839266362E-2</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>0.24065741189782625</v>
+        <v>4.4716574068658699E-2</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0.2459796218817048</v>
+        <v>3.7190444571401124E-2</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.27606904227717477</v>
+        <v>3.5247774389737904E-2</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.25602848922964971</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.22961239931032121</v>
+        <v>2.859838618005326E-2</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.23922815693380972</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.19523495653058345</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.19741849328929978</v>
+        <v>3.1558526626821765E-2</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.18684323426274579</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.15932701154533691</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>0.18691274045932446</v>
+        <v>3.1856110469437267E-2</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>0.17373555395700757</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>0.15820952523978996</v>
+        <v>4.9094758221611065E-2</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>0.13975929885771568</v>
+        <v>0.12634501440067869</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>0.13756166041751472</v>
+        <v>0.15364577708418375</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>0.16472122362769581</v>
+        <v>0.1371870776801232</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>0.2041311644086598</v>
+        <v>0.14630053413095473</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>0.21252682579117343</v>
+        <v>0.10629364306863091</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>0.17114118932712602</v>
+        <v>0.16510842887184699</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>0.13343133724898221</v>
+        <v>0.18985328659295564</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>0.10446400022098169</v>
+        <v>0.20826176036330152</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>0.13400545650648549</v>
+        <v>0.17044776238000545</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>0.1199282571301504</v>
+        <v>0.17428556825643488</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>0.11193126785805797</v>
+        <v>0.14873020364112627</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>7.4159747173853707E-2</v>
+        <v>0.13266240525631734</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>6.3886979230742255E-2</v>
+        <v>0.10882235104619363</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>6.8881660227006258E-2</v>
+        <v>7.1570106550836191E-2</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>4.8334454271969932E-2</v>
+        <v>4.3020744867439967E-2</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>2.8809194980846671E-2</v>
+        <v>3.7525406207243893E-2</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>2.7491844964168351E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>4.3398031213510463E-2</v>
+        <v>3.7782822908663333E-2</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>4.4524690176326646E-2</v>
+        <v>3.5063675502009263E-2</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>2.703720939921592E-2</v>
+        <v>5.3866677682008875E-2</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>2.703720939921592E-2</v>
+        <v>6.1175515829707643E-2</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>3.0678908499764096E-2</v>
+        <v>7.5535838895352037E-2</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>2.703720939921592E-2</v>
+        <v>3.2005150469358007E-2</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4.05138617734805E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>3.1210193932657948E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>4.0328109399894556E-2</v>
+        <v>2.7015472933483518E-2</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>2.703720939921592E-2</v>
+        <v>5.5787858408712789E-2</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>2.703720939921592E-2</v>
+        <v>4.6628205479885471E-2</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>2.703720939921592E-2</v>
+        <v>8.5089561855410029E-2</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>3.3223537096776647E-2</v>
+        <v>9.8233324667585553E-2</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>3.1665882458233742E-2</v>
+        <v>0.13401883134673906</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>3.5005234146824389E-2</v>
+        <v>0.13326102980778437</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>4.3754894633118803E-2</v>
+        <v>0.1065113026189803</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>5.7528793113160004E-2</v>
+        <v>5.5450812520451691E-2</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>3.8841463739269791E-2</v>
+        <v>5.925056816446251E-2</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>6.7271475681215179E-2</v>
+        <v>8.4107211454667416E-2</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>6.9568231213458662E-2</v>
+        <v>7.2246220782891502E-2</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>9.1926248100218488E-2</v>
+        <v>5.3866972899493458E-2</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>6.712336248159545E-2</v>
+        <v>4.4439696118269596E-2</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>8.9244270159806169E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>0.15064164711249162</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>0.16065034080378082</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>0.11635413240196817</v>
+        <v>2.5848975585321825E-2</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>0.11490462812168195</v>
+        <v>2.5280553788133299E-2</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>0.1448984810182351</v>
+        <v>3.9032370914410773E-2</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>0.13298645999578754</v>
+        <v>4.1840577335751243E-2</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>0.19656276526135141</v>
+        <v>9.7670790108198291E-2</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>0.23030960634666647</v>
+        <v>0.10485256374989023</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>0.22608051051046799</v>
+        <v>0.16129525469270345</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>0.26336800032722962</v>
+        <v>0.1309111531681536</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>0.24029857057452972</v>
+        <v>0.14359328600173574</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>0.20950150584884464</v>
+        <v>0.12948467439719574</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>0.19608396270143105</v>
+        <v>0.14468467788775341</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>0.21179052392096223</v>
+        <v>0.15892012382936041</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>0.22584343935782941</v>
+        <v>8.0319409097313235E-2</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>0.22152271525427467</v>
+        <v>3.8916299042424454E-2</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>0.17754374202040241</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>0.18923507778358969</v>
+        <v>3.2988414527140436E-2</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>0.18907634352225666</v>
+        <v>7.5042858975276544E-2</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>0.15563371174675122</v>
+        <v>6.2819429430696738E-2</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>0.13786723363121256</v>
+        <v>8.7526908590208577E-2</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>0.11905049739837006</v>
+        <v>0.10289240887356792</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>0.12562466694761315</v>
+        <v>6.5389685517170754E-2</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>0.14931659632462138</v>
+        <v>7.6585589711636343E-2</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>0.18369936636086615</v>
+        <v>5.1465292851680479E-2</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>0.19028104384350716</v>
+        <v>9.8836216134616045E-2</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>0.18131067482206503</v>
+        <v>9.4566745699658047E-2</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>0.17225544685651784</v>
+        <v>0.14586675441296046</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>0.17751502532324709</v>
+        <v>0.12616610106036408</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>0.16494952160059406</v>
+        <v>0.14117494945941564</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>0.13326381698089593</v>
+        <v>0.13375142630277709</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>8.9511896707980057E-2</v>
+        <v>6.2677035171244108E-2</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>0.11085158926365621</v>
+        <v>3.4552349638486711E-2</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>4.4442637969433138E-2</v>
+        <v>5.074518397281811E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>2.703720939921592E-2</v>
+        <v>4.8600271947539103E-2</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>3.848451316662882E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>9.5511978604151088E-2</v>
+        <v>2.9747017629047395E-2</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>0.11364726504350198</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>5.5847127884797523E-2</v>
+        <v>4.7387671450517928E-2</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>0.12617266240606614</v>
+        <v>3.1200731223293355E-2</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>0.10868856743762993</v>
+        <v>8.3478560883709335E-2</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>7.6115253246174214E-2</v>
+        <v>4.7889404660395526E-2</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>9.4162206663357409E-2</v>
+        <v>5.3126332494262928E-2</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>0.11653978490570001</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>0.11865330982149518</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>9.9062362865649192E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>9.379973827273605E-2</v>
+        <v>3.2977153196884643E-2</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>0.11365842060783882</v>
+        <v>5.8499796692549982E-2</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>0.13194673305619414</v>
+        <v>6.671633408949762E-2</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>0.11822521931934075</v>
+        <v>5.3918631988901539E-2</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>0.13159252173182195</v>
+        <v>7.8490974043507439E-2</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>0.11670095791145145</v>
+        <v>0.10256042598402655</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>8.8893469855153742E-2</v>
+        <v>0.10315098420906833</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>0.1054446237877341</v>
+        <v>0.11867684116427907</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>9.2790766539912556E-2</v>
+        <v>0.12818463251295989</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>0.12084279201869351</v>
+        <v>9.0809452030710697E-2</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>0.10057153115358032</v>
+        <v>0.11313819614518077</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>0.11683225222606451</v>
+        <v>8.7508710724127525E-2</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>0.10035734038244659</v>
+        <v>6.5530716720231252E-2</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>9.5624272956331122E-2</v>
+        <v>6.9670514786441234E-2</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>0.11419110246035877</v>
+        <v>5.8523691741100968E-2</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>0.14419883854132245</v>
+        <v>5.3589866108207027E-2</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>0.14374858901936646</v>
+        <v>7.1080746183477192E-2</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>0.10688834206010625</v>
+        <v>0.10351064380240499</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>0.10710933284193147</v>
+        <v>9.3538691383136446E-2</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>0.10638498122485075</v>
+        <v>0.10143156333277763</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>0.15271831613756051</v>
+        <v>9.0247305705934769E-2</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>0.14723216807702819</v>
+        <v>9.5051288604580286E-2</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>0.12122268045378336</v>
+        <v>0.10659551774952988</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>7.0476583152063343E-2</v>
+        <v>8.2702240944969238E-2</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>0.10045748485487559</v>
+        <v>8.933351591359788E-2</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>0.14215488664440909</v>
+        <v>0.10646607916095069</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>0.15999576961783585</v>
+        <v>0.1059372058483059</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>0.11011988417255669</v>
+        <v>0.15984697492529926</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>9.6917979444085409E-2</v>
+        <v>0.13334390046615985</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>9.0883909365237076E-2</v>
+        <v>0.10393082247433691</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>0.11293628771198319</v>
+        <v>4.5685163971567577E-2</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>0.11285342010934496</v>
+        <v>7.2668266328697204E-2</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>0.10149601732738284</v>
+        <v>9.9127781755628586E-2</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>6.8283639024311935E-2</v>
+        <v>9.3282947988913748E-2</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>3.6915930060324779E-2</v>
+        <v>0.12012178636824916</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>2.703720939921592E-2</v>
+        <v>0.12194468675796574</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>2.703720939921592E-2</v>
+        <v>0.12723545594650482</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>3.1704616320178278E-2</v>
+        <v>0.1263515808093181</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>2.8330489662306661E-2</v>
+        <v>0.13638159491933738</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>4.0238384065081109E-2</v>
+        <v>0.13466506062788844</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>2.703720939921592E-2</v>
+        <v>0.22233097093120407</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>2.703720939921592E-2</v>
+        <v>0.17414471223466482</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>2.8806168672312577E-2</v>
+        <v>0.10553949851606154</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>6.0052463432824173E-2</v>
+        <v>6.4980071888572216E-2</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>8.3321522937996356E-2</v>
+        <v>3.3628586260938294E-2</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>6.4716607132914633E-2</v>
+        <v>2.5204037050859662E-2</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>4.9284080027637095E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>3.3388243294629194E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>5.5813481603090846E-2</v>
+        <v>3.6188762294692617E-2</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>2.703720939921592E-2</v>
+        <v>4.6353342929912743E-2</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>5.6035139966329389E-2</v>
+        <v>6.8348072089908812E-2</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>4.4463712662958066E-2</v>
+        <v>0.12506809855363493</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>9.6602662162852612E-2</v>
+        <v>0.16119875345897433</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>3.2406855587811208E-2</v>
+        <v>0.11221110772717237</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>2.703720939921592E-2</v>
+        <v>3.6900894320904279E-2</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>2.703720939921592E-2</v>
+        <v>6.2195779615582134E-2</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>2.703720939921592E-2</v>
+        <v>2.6225720757233659E-2</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>2.703720939921592E-2</v>
+        <v>2.7451431680249754E-2</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>3.6721602252756183E-2</v>
+        <v>9.1378296925599636E-2</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>7.3236700401885665E-2</v>
+        <v>8.6302090163095507E-2</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>0.11122024332930167</v>
+        <v>6.7461632597020857E-2</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>0.14951317557415941</v>
+        <v>7.3409623843945088E-2</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>9.3190295673888174E-2</v>
+        <v>7.9468196045683975E-2</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>0.13683820938074603</v>
+        <v>7.9559839295072668E-2</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>0.18895194177740213</v>
+        <v>5.8273468233768652E-2</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>0.18117923953005394</v>
+        <v>2.6718642509008801E-2</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>0.18049208996948063</v>
+        <v>3.3829326012378404E-2</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>0.20773226056813571</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>0.21541448938408303</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>0.1857593481755104</v>
+        <v>5.7712581716443195E-2</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>0.19349960636104413</v>
+        <v>4.4781447953532026E-2</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>0.22907853378986456</v>
+        <v>4.0826847361724872E-2</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>0.18613772699503991</v>
+        <v>6.6801347036481176E-2</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>0.20722685695632867</v>
+        <v>5.6151927523861188E-2</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>0.1702523917420718</v>
+        <v>8.7802283257543509E-2</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>0.11580973142049089</v>
+        <v>7.3998922168372436E-2</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>0.1199197204127202</v>
+        <v>0.10525864408129709</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>9.5506816785586243E-2</v>
+        <v>0.12261473431467462</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>6.2428885641482579E-2</v>
+        <v>0.11113780363234918</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>5.8256318971715598E-2</v>
+        <v>7.8844654337883735E-2</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>7.0100253638573501E-2</v>
+        <v>4.5177674242943333E-2</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>8.0384610279857285E-2</v>
+        <v>3.792658257757503E-2</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>7.0290633394438182E-2</v>
+        <v>2.8332084573474768E-2</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>3.9341669802042081E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>4.2087027094764105E-2</v>
+        <v>4.7626378520466098E-2</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>5.3819648997469827E-2</v>
+        <v>3.9340221287429297E-2</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>2.9116476672500911E-2</v>
+        <v>7.2760697957265114E-2</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>3.0494120767880488E-2</v>
+        <v>5.4586461173934779E-2</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>3.3239517265045017E-2</v>
+        <v>8.4300858957393143E-2</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>2.703720939921592E-2</v>
+        <v>6.5173041246687935E-2</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>4.2183432809299065E-2</v>
+        <v>6.9314074586309254E-2</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>2.703720939921592E-2</v>
+        <v>9.9242276590726375E-2</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>5.8553161076443032E-2</v>
+        <v>8.2438617887339125E-2</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>4.151755586798677E-2</v>
+        <v>6.6102309890418515E-2</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>5.3857970071635154E-2</v>
+        <v>0.13029430015272556</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>9.1813084426344518E-2</v>
+        <v>0.15711945467954039</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>5.5336384432909121E-2</v>
+        <v>0.13662250777968055</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>7.6051267144165935E-2</v>
+        <v>0.15308943972253883</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>6.6771914100289306E-2</v>
+        <v>0.13518576042654143</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>7.7492139177381417E-2</v>
+        <v>0.15361768087098804</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>0.13220872956631832</v>
+        <v>0.19473550891363234</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>0.1603967248538245</v>
+        <v>0.13337246135298539</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>0.17189035583037066</v>
+        <v>0.16263326292146649</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>0.12705448518835136</v>
+        <v>0.20470087127254419</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>8.5999663969836423E-2</v>
+        <v>0.19776614119258387</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>3.6216571179975926E-2</v>
+        <v>0.24766276127556558</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>0.10176644359903803</v>
+        <v>0.24216814985171592</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>9.2811881833378448E-2</v>
+        <v>0.19064740549501824</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>9.3525037858521939E-2</v>
+        <v>0.10992665214980837</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>9.5633172369568933E-2</v>
+        <v>9.5135349420565715E-2</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>2.8584683874090185E-2</v>
+        <v>0.11575233374547433</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>9.1137249688293537E-2</v>
+        <v>0.12223465207745338</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482">
-        <v>5.844950048425928E-2</v>
+        <v>0.13159338881711585</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483">
-        <v>8.7903814105903477E-2</v>
+        <v>0.10757456341177864</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>9.5469394162692858E-2</v>
+        <v>0.10870424623498361</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>9.7590967445194216E-2</v>
+        <v>5.2677597407164864E-2</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>0.11624270753848751</v>
+        <v>3.2437714163546807E-2</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>0.11549461865980711</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>0.11602339670807066</v>
+        <v>3.5679089707169501E-2</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>0.13492584248237638</v>
+        <v>3.5533341282654084E-2</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>0.12900902346466522</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>0.11649019216698754</v>
+        <v>2.4878001270451616E-2</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>8.4494860997731402E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>0.1185781334760361</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>0.13976647449851726</v>
+        <v>4.4363720501669333E-2</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>0.17227958576773544</v>
+        <v>4.7203094262391276E-2</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>0.16579875142830058</v>
+        <v>5.8343836330731071E-2</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>0.21585627131951829</v>
+        <v>8.5314735112299256E-2</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>0.2554531641253277</v>
+        <v>8.8724267804812032E-2</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>0.24394681660112971</v>
+        <v>0.10421685466559952</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500">
-        <v>0.23608152127185147</v>
+        <v>0.12340415541175544</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501">
-        <v>0.20640928361360572</v>
+        <v>0.15787302865782038</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502">
-        <v>0.15505874292700994</v>
+        <v>0.16752356710875083</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503">
-        <v>0.13028379491462797</v>
+        <v>0.20782599235824864</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504">
-        <v>0.1063661544807202</v>
+        <v>0.19990831678128482</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505">
-        <v>0.12409019892891214</v>
+        <v>0.19004313560436431</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506">
-        <v>0.137100791443827</v>
+        <v>0.23883224697520697</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507">
-        <v>0.15058186132986884</v>
+        <v>0.21166461199613665</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>0.17712359399024077</v>
+        <v>0.20270834586100353</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>0.20413700601029688</v>
+        <v>0.22488040065066076</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>0.11771307555313515</v>
+        <v>0.22033941277421071</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>0.11487939234950835</v>
+        <v>0.25775837099145754</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>5.8420839091598564E-2</v>
+        <v>0.28097688542524896</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>2.703720939921592E-2</v>
+        <v>0.27834464504829098</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>2.703720939921592E-2</v>
+        <v>0.24029082818982664</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>2.836168483690496E-2</v>
+        <v>0.24884082381608782</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>3.2866633616929791E-2</v>
+        <v>0.19214852154274542</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>2.703720939921592E-2</v>
+        <v>0.19239177022993892</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>2.703720939921592E-2</v>
+        <v>0.21137466312517086</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>3.007113669990321E-2</v>
+        <v>0.20961145824532743</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>2.703720939921592E-2</v>
+        <v>0.23010204280131172</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>2.703720939921592E-2</v>
+        <v>0.28811146781252728</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>2.703720939921592E-2</v>
+        <v>0.30614854013348308</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>2.703720939921592E-2</v>
+        <v>0.30143801001879533</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524">
-        <v>2.703720939921592E-2</v>
+        <v>0.30942324639905494</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525">
-        <v>3.6669550666956208E-2</v>
+        <v>0.3098213639463181</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526">
-        <v>5.5280924167868228E-2</v>
+        <v>0.2523376310507508</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527">
-        <v>4.2758527739418704E-2</v>
+        <v>0.22759696823740083</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528">
-        <v>2.703720939921592E-2</v>
+        <v>0.2586598817908678</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529">
-        <v>3.3868519591990116E-2</v>
+        <v>0.2459996046596247</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530">
-        <v>2.8081778190469437E-2</v>
+        <v>0.25478709019442891</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531">
-        <v>4.4843723451536248E-2</v>
+        <v>0.21030350003006379</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>2.703720939921592E-2</v>
+        <v>0.20365539857531506</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>2.703720939921592E-2</v>
+        <v>0.2151542276650602</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>2.8862996690760204E-2</v>
+        <v>0.16084810155991988</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>2.703720939921592E-2</v>
+        <v>0.16608501303831452</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>3.2547932181785026E-2</v>
+        <v>0.15345651032292665</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>3.3729965726636939E-2</v>
+        <v>0.11627834886304374</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>2.9885255782535317E-2</v>
+        <v>0.11094769616769119</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>2.703720939921592E-2</v>
+        <v>4.7185580329526293E-2</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>4.0419643875917156E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>6.0508901160494274E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>6.6961258961682743E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>9.1532155471220289E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>0.14150312515634836</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>0.11501518387290278</v>
+        <v>3.0544862309482959E-2</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>0.13478108985446094</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>8.00943470026073E-2</v>
+        <v>2.7025937081049552E-2</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548">
-        <v>8.1239511258831471E-2</v>
+        <v>4.6031212084905418E-2</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549">
-        <v>7.4936556729113951E-2</v>
+        <v>4.5633290242714716E-2</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550">
-        <v>4.612457603415808E-2</v>
+        <v>4.7878504986725176E-2</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551">
-        <v>0.11033914620177229</v>
+        <v>3.7567084805412834E-2</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552">
-        <v>9.562428357513432E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553">
-        <v>0.14749981582291952</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554">
-        <v>0.13543687017290618</v>
+        <v>4.6996636968240732E-2</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555">
-        <v>7.9028353489826383E-2</v>
+        <v>0.10120330436473646</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>6.4681527866185223E-2</v>
+        <v>8.3745801732555275E-2</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>0.10419134466644266</v>
+        <v>3.4144226012822937E-2</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>8.1186491240214168E-2</v>
+        <v>3.8354780962921248E-2</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>0.14707315500961082</v>
+        <v>4.8352759519070511E-2</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>9.8505819336633951E-2</v>
+        <v>4.1774829848961255E-2</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>9.3667673631372475E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>8.5034736540095759E-2</v>
+        <v>7.9513037828156399E-2</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>6.9236670385905016E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>0.10263053453516524</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>0.16161091240259917</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>9.6446786829343281E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>5.2674435767448118E-2</v>
+        <v>3.1167439056026296E-2</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>5.4621086517875082E-2</v>
+        <v>3.4615562808283783E-2</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>7.6587454983564215E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>8.5153742806272706E-2</v>
+        <v>4.2059037832783232E-2</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>8.0477031345948857E-2</v>
+        <v>5.9625497554209782E-2</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572">
-        <v>5.4240953857707538E-2</v>
+        <v>7.8920904320440771E-2</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573">
-        <v>2.703720939921592E-2</v>
+        <v>6.3294002887498133E-2</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574">
-        <v>7.6728820210132984E-2</v>
+        <v>9.5780173430643198E-2</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575">
-        <v>0.10741954143054559</v>
+        <v>0.11461444245072473</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576">
-        <v>0.10916374974201148</v>
+        <v>0.19400828862516695</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A577">
-        <v>8.7339417242152578E-2</v>
+        <v>0.22138979851046908</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A578">
-        <v>8.5880142647876884E-2</v>
+        <v>0.25050984534623932</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A579">
-        <v>3.6253260996182049E-2</v>
+        <v>0.24146779088027018</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>3.4689122327591242E-2</v>
+        <v>0.18827745977359606</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>4.1706603356526942E-2</v>
+        <v>0.16824239478188546</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>2.703720939921592E-2</v>
+        <v>0.13635696999945274</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>2.703720939921592E-2</v>
+        <v>0.11252586271291401</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>7.1107452948942759E-2</v>
+        <v>0.12706657760061449</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>0.11213381393394327</v>
+        <v>0.10395970740174038</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>0.12062845194248181</v>
+        <v>7.1291571419270977E-2</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>0.14076901613183698</v>
+        <v>5.6919684529607523E-2</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>0.1226743349863901</v>
+        <v>5.1276649294279365E-2</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>0.11496959763587103</v>
+        <v>6.286644556173912E-2</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>0.13119846248880096</v>
+        <v>3.5369650728885947E-2</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>0.13249867762836667</v>
+        <v>4.3516976272939545E-2</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>0.11868596702603271</v>
+        <v>4.5405819477952691E-2</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>0.10899509150869521</v>
+        <v>8.5755451224827126E-2</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>7.1625642993398131E-2</v>
+        <v>7.6330508000065925E-2</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>6.3288740175796124E-2</v>
+        <v>7.0034150363943587E-2</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A596">
-        <v>0.1116689015529127</v>
+        <v>3.5338435609635177E-2</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A597">
-        <v>0.18714220285946773</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A598">
-        <v>0.1829426523476709</v>
+        <v>3.101214772897145E-2</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A599">
-        <v>0.15304902548626809</v>
+        <v>2.6456499576068417E-2</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A600">
-        <v>0.1188312891647986</v>
+        <v>3.7917754032351564E-2</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A601">
-        <v>0.10023078968489664</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A602">
-        <v>3.0800025118108851E-2</v>
+        <v>7.577072743447269E-2</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A603">
-        <v>2.7892466760511204E-2</v>
+        <v>7.7729718198488063E-2</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>6.0695110790269236E-2</v>
+        <v>0.11004402026079635</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>2.703720939921592E-2</v>
+        <v>9.8762837532234582E-2</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>3.1945327879763841E-2</v>
+        <v>9.0219215106276812E-2</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>3.722029880213016E-2</v>
+        <v>0.11026524320357375</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>7.279890781064087E-2</v>
+        <v>0.12493630871154421</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>8.3133834783164065E-2</v>
+        <v>8.3400302298797843E-2</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>8.974586421008518E-2</v>
+        <v>3.6107086894147856E-2</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>8.5815888161788562E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>4.7680987595307832E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>3.2022500446039041E-2</v>
+        <v>2.6095664082627111E-2</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>8.4504162111572675E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>0.12322550556023006</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>0.15353804728284898</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>0.1160611206479316</v>
+        <v>4.2125867911436986E-2</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>0.11015638517087581</v>
+        <v>5.422366692434448E-2</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>0.1185717477251796</v>
+        <v>5.0844696476812196E-2</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A620">
-        <v>9.9230929057052053E-2</v>
+        <v>8.1898969666969426E-2</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A621">
-        <v>0.11179782259157219</v>
+        <v>5.2438870485951403E-2</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A622">
-        <v>9.2534368709016601E-2</v>
+        <v>6.4216791439252643E-2</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A623">
-        <v>0.10328252698121798</v>
+        <v>7.3859093503416018E-2</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A624">
-        <v>7.0310926543501295E-2</v>
+        <v>8.3266150345647702E-2</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A625">
-        <v>4.3691735203898747E-2</v>
+        <v>5.7899418196950887E-2</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A626">
-        <v>3.8731405782900574E-2</v>
+        <v>6.6949917474615941E-2</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A627">
-        <v>2.703720939921592E-2</v>
+        <v>5.0024515640183898E-2</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>3.6592073448911536E-2</v>
+        <v>2.783343642075152E-2</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>2.703720939921592E-2</v>
+        <v>4.9146656288575209E-2</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>2.703720939921592E-2</v>
+        <v>2.8240693833009523E-2</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>2.703720939921592E-2</v>
+        <v>2.5500649955443717E-2</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>3.1754676221967718E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>0.11267669647485509</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>0.11251678749865371</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>8.5035138640558769E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>6.4647254927567593E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>3.0674409658419201E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>6.6396851409980584E-2</v>
+        <v>7.6927279765250225E-2</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>9.1523601841450253E-2</v>
+        <v>5.7055756281509745E-2</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>9.3227144746664783E-2</v>
+        <v>4.886337741946737E-2</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A644">
-        <v>8.3614528708186253E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A645">
-        <v>9.9036967888182309E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A646">
-        <v>0.10696969119279903</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A647">
-        <v>4.0739221686616034E-2</v>
+        <v>2.5572549821069896E-2</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A648">
-        <v>2.703720939921592E-2</v>
+        <v>4.5760788044863512E-2</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A649">
-        <v>2.703720939921592E-2</v>
+        <v>5.7021556233779268E-2</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A650">
-        <v>2.7881941588424445E-2</v>
+        <v>3.7019085902187707E-2</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A651">
-        <v>2.7963446490371455E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>2.703720939921592E-2</v>
+        <v>6.1628038758937749E-2</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>2.703720939921592E-2</v>
+        <v>0.12728945597794</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>5.2803016836076237E-2</v>
+        <v>0.12665399585884909</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>0.10731886023126504</v>
+        <v>8.9275081748620089E-2</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>0.12254426634187791</v>
+        <v>0.12622091514347097</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>0.12791177240307575</v>
+        <v>0.10197130842491323</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>9.5509647151529292E-2</v>
+        <v>8.3173022321757634E-2</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>6.6899639042295345E-2</v>
+        <v>0.10999728292184492</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>6.2057952592099813E-2</v>
+        <v>6.1367658463166282E-2</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>6.1611028311494814E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>6.3724220141656421E-2</v>
+        <v>3.3407984554197079E-2</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>8.9277095811063426E-2</v>
+        <v>4.3567156431759499E-2</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>9.6566007026932438E-2</v>
+        <v>4.5921016376511747E-2</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>0.11620760450417572</v>
+        <v>5.9982248764965995E-2</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>0.12007085732230433</v>
+        <v>9.3511221050656637E-2</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>9.06286993665089E-2</v>
+        <v>0.12273166542783102</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A668">
-        <v>8.3809632510672999E-2</v>
+        <v>9.9468128232383393E-2</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A669">
-        <v>2.703720939921592E-2</v>
+        <v>0.12309527785181569</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A670">
-        <v>3.5263874373511785E-2</v>
+        <v>0.12442237641071326</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A671">
-        <v>2.703720939921592E-2</v>
+        <v>0.1031532332237555</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A672">
-        <v>2.703720939921592E-2</v>
+        <v>6.1237794854869215E-2</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A673">
-        <v>2.703720939921592E-2</v>
+        <v>8.0535165450775742E-2</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A674">
-        <v>2.703720939921592E-2</v>
+        <v>6.7013344395580626E-2</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A675">
-        <v>2.703720939921592E-2</v>
+        <v>6.6972397155382904E-2</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>2.703720939921592E-2</v>
+        <v>4.2435534195271019E-2</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>4.5689801728748335E-2</v>
+        <v>2.8195515982333299E-2</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>3.2360624675195175E-2</v>
+        <v>2.7488793859382857E-2</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>3.490371714314331E-2</v>
+        <v>5.8611061827244307E-2</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>3.7084729243129236E-2</v>
+        <v>8.2903078056802471E-2</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>2.703720939921592E-2</v>
+        <v>0.11527663245309371</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>3.8570396515579537E-2</v>
+        <v>8.6509934600381963E-2</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>6.3641295085358845E-2</v>
+        <v>5.4538770780123494E-2</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>5.7011828475439147E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>4.5926681338891141E-2</v>
+        <v>3.5171142850965363E-2</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>4.9603957653525675E-2</v>
+        <v>0.12147765909563046</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>4.0955353427719818E-2</v>
+        <v>0.14131129967561423</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>3.1739306538023732E-2</v>
+        <v>0.11028510941617016</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>6.0571183845532499E-2</v>
+        <v>0.13429112373615287</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>2.703720939921592E-2</v>
+        <v>9.1900159402923939E-2</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A692">
-        <v>5.4888453151660264E-2</v>
+        <v>4.512623642639433E-2</v>
       </c>
     </row>
     <row r="693" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A693">
-        <v>2.8681133353906707E-2</v>
+        <v>6.5942990905753673E-2</v>
       </c>
     </row>
     <row r="694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A694">
-        <v>2.703720939921592E-2</v>
+        <v>4.2013492039073161E-2</v>
       </c>
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A695">
-        <v>2.703720939921592E-2</v>
+        <v>5.0526273674419524E-2</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A696">
-        <v>3.4555893316234695E-2</v>
+        <v>9.4186597255761159E-2</v>
       </c>
     </row>
     <row r="697" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A697">
-        <v>3.6652514383020127E-2</v>
+        <v>0.10448181254968567</v>
       </c>
     </row>
     <row r="698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A698">
-        <v>3.9379597192226626E-2</v>
+        <v>0.13185585023399196</v>
       </c>
     </row>
     <row r="699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A699">
-        <v>6.0461157433070747E-2</v>
+        <v>7.4085956069793263E-2</v>
       </c>
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>3.9566794463508033E-2</v>
+        <v>9.3731211067181824E-2</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>4.8220322709302037E-2</v>
+        <v>0.16177400855950266</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>6.5709101970508749E-2</v>
+        <v>0.17340004176208454</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>7.7086026285705031E-2</v>
+        <v>0.11523161373031963</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>5.3056974862832618E-2</v>
+        <v>0.10446361326465829</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>8.3591921862841034E-2</v>
+        <v>8.4522489666050332E-2</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>4.4972845375833653E-2</v>
+        <v>9.4638657689329858E-2</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>4.6443630116361247E-2</v>
+        <v>0.10527485107826956</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>3.8660583296930694E-2</v>
+        <v>0.11519488322158003</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>4.7186131577015553E-2</v>
+        <v>9.9112279074635823E-2</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>7.7208345262940278E-2</v>
+        <v>7.6311655656742153E-2</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>3.6416570427060251E-2</v>
+        <v>5.5982354245985119E-2</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>2.703720939921592E-2</v>
+        <v>8.1879813961758238E-2</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>2.703720939921592E-2</v>
+        <v>2.8227731204099445E-2</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>2.703720939921592E-2</v>
+        <v>2.4890576238164354E-2</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>6.3454204735450784E-2</v>
+        <v>3.0706208166490605E-2</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A716">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A717">
-        <v>4.8055071810594305E-2</v>
+        <v>3.4691248299780444E-2</v>
       </c>
     </row>
     <row r="718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A718">
-        <v>4.4737159318974838E-2</v>
+        <v>3.3302735503522418E-2</v>
       </c>
     </row>
     <row r="719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A719">
-        <v>4.0603305963317488E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A720">
-        <v>4.3367753370839028E-2</v>
+        <v>2.7997474161155802E-2</v>
       </c>
     </row>
     <row r="721" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A721">
-        <v>4.2225056117799406E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="722" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A722">
-        <v>6.4124829804174471E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A723">
-        <v>3.6527091493723428E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>4.2435236219518585E-2</v>
+        <v>2.6129533699013007E-2</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>7.6508720861823504E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>9.4451660214589603E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>4.6048104094752094E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>9.6460147465531151E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>7.8571417641486924E-2</v>
+        <v>3.8893628384444649E-2</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>7.7570284087607536E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>6.6825993905162542E-2</v>
+        <v>3.6172139011194634E-2</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>8.7762588148788651E-2</v>
+        <v>6.358243820379858E-2</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>6.7500312412198102E-2</v>
+        <v>5.7503530080510297E-2</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>5.7364384191208803E-2</v>
+        <v>6.5024504283248366E-2</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>0.10128798391220618</v>
+        <v>8.4082044919402785E-2</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>0.14949791619340927</v>
+        <v>7.9030555907033742E-2</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>0.16506032547654365</v>
+        <v>9.4556640242603768E-2</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>0.17311260758629332</v>
+        <v>5.1805489766293379E-2</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>0.2084144291227534</v>
+        <v>8.5847800267195906E-2</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A740">
-        <v>0.22047844888679768</v>
+        <v>5.2420022746148043E-2</v>
       </c>
     </row>
     <row r="741" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A741">
-        <v>0.23448369609549399</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A742">
-        <v>0.15050206491222665</v>
+        <v>5.9322443299892155E-2</v>
       </c>
     </row>
     <row r="743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A743">
-        <v>0.13607094537486436</v>
+        <v>5.6372458612432175E-2</v>
       </c>
     </row>
     <row r="744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A744">
-        <v>0.11587717936809362</v>
+        <v>6.9272374750148982E-2</v>
       </c>
     </row>
     <row r="745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A745">
-        <v>9.2776510726153102E-2</v>
+        <v>5.6490208511504589E-2</v>
       </c>
     </row>
     <row r="746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A746">
-        <v>3.3925674130258987E-2</v>
+        <v>2.9538309826219838E-2</v>
       </c>
     </row>
     <row r="747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A747">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A748">
-        <v>2.703720939921592E-2</v>
+        <v>3.8240381653911783E-2</v>
       </c>
     </row>
     <row r="749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A749">
-        <v>2.703720939921592E-2</v>
+        <v>3.1687083373091236E-2</v>
       </c>
     </row>
     <row r="750" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A750">
-        <v>3.7639293414045961E-2</v>
+        <v>2.8003668689340094E-2</v>
       </c>
     </row>
     <row r="751" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A751">
-        <v>7.7843146832612273E-2</v>
+        <v>3.743090683798244E-2</v>
       </c>
     </row>
     <row r="752" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A752">
-        <v>9.0337233847470513E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="753" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A753">
-        <v>0.10510049195369754</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A754">
-        <v>0.10971024884627621</v>
+        <v>5.2279295267771544E-2</v>
       </c>
     </row>
     <row r="755" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A755">
-        <v>9.2459193380064572E-2</v>
+        <v>6.9802928928861446E-2</v>
       </c>
     </row>
     <row r="756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A756">
-        <v>0.1088272561425833</v>
+        <v>3.2689574938468205E-2</v>
       </c>
     </row>
     <row r="757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A757">
-        <v>7.4569171932661368E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A758">
-        <v>3.8567757549976885E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A759">
-        <v>8.7350860800177482E-2</v>
+        <v>2.9030716231537447E-2</v>
       </c>
     </row>
     <row r="760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A760">
-        <v>4.6376665086837202E-2</v>
+        <v>5.3218002884851276E-2</v>
       </c>
     </row>
     <row r="761" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A761">
-        <v>2.703720939921592E-2</v>
+        <v>5.5237161184909671E-2</v>
       </c>
     </row>
     <row r="762" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A762">
-        <v>3.253096442978208E-2</v>
+        <v>2.6788951948554865E-2</v>
       </c>
     </row>
     <row r="763" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A763">
-        <v>7.3370312740031363E-2</v>
+        <v>3.367751045884991E-2</v>
       </c>
     </row>
     <row r="764" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A764">
-        <v>5.287326711647504E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="765" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A765">
-        <v>4.0379222249726267E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="766" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A766">
-        <v>5.5994716861673163E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="767" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A767">
-        <v>3.9418118516503689E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="768" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A768">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A769">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="770" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A770">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A771">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A772">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A773">
-        <v>3.0025851814795317E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A774">
-        <v>5.2252153904895342E-2</v>
+        <v>5.4794302783165307E-2</v>
       </c>
     </row>
     <row r="775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A775">
-        <v>0.10249063487281575</v>
+        <v>7.2798704478236248E-2</v>
       </c>
     </row>
     <row r="776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A776">
-        <v>4.618393822245561E-2</v>
+        <v>7.2869267042626112E-2</v>
       </c>
     </row>
     <row r="777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A777">
-        <v>4.4936358284586718E-2</v>
+        <v>3.0668524224322966E-2</v>
       </c>
     </row>
     <row r="778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A778">
-        <v>5.1580267721412824E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A779">
-        <v>8.6614042458791909E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A780">
-        <v>8.7528786029629393E-2</v>
+        <v>9.8565483215365041E-2</v>
       </c>
     </row>
     <row r="781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A781">
-        <v>9.3902578227585354E-2</v>
+        <v>0.12763030875810985</v>
       </c>
     </row>
     <row r="782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A782">
-        <v>0.1181549064573149</v>
+        <v>0.13151417213208819</v>
       </c>
     </row>
     <row r="783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A783">
-        <v>0.10092245078610802</v>
+        <v>9.4362022807734675E-2</v>
       </c>
     </row>
     <row r="784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A784">
-        <v>0.12483740664463722</v>
+        <v>5.5037880812632368E-2</v>
       </c>
     </row>
     <row r="785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A785">
-        <v>0.13860183450501071</v>
+        <v>7.1050139998819761E-2</v>
       </c>
     </row>
     <row r="786" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A786">
-        <v>0.14732023091789448</v>
+        <v>0.12067703861814554</v>
       </c>
     </row>
     <row r="787" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A787">
-        <v>0.13294055654674658</v>
+        <v>6.128946200308745E-2</v>
       </c>
     </row>
     <row r="788" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A788">
-        <v>0.1637655864385705</v>
+        <v>4.7003146510368785E-2</v>
       </c>
     </row>
     <row r="789" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A789">
-        <v>0.12220935831621123</v>
+        <v>4.4323347472776477E-2</v>
       </c>
     </row>
     <row r="790" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A790">
-        <v>0.16729533589339732</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="791" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A791">
-        <v>0.12554584571505256</v>
+        <v>4.3751487309255821E-2</v>
       </c>
     </row>
     <row r="792" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A792">
-        <v>0.14202363179499444</v>
+        <v>3.3358095060481693E-2</v>
       </c>
     </row>
     <row r="793" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A793">
-        <v>0.14352892388695951</v>
+        <v>8.9943319434257082E-2</v>
       </c>
     </row>
     <row r="794" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A794">
-        <v>0.20259048944394537</v>
+        <v>7.4516300769923272E-2</v>
       </c>
     </row>
     <row r="795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A795">
-        <v>0.15496657613481851</v>
+        <v>8.5859940423297129E-2</v>
       </c>
     </row>
     <row r="796" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A796">
-        <v>0.15127386410992799</v>
+        <v>4.8075696708654705E-2</v>
       </c>
     </row>
     <row r="797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A797">
-        <v>0.12416838460762482</v>
+        <v>3.2043902436898045E-2</v>
       </c>
     </row>
     <row r="798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A798">
-        <v>0.1416196513728443</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A799">
-        <v>8.9508074894234887E-2</v>
+        <v>3.2783461845158006E-2</v>
       </c>
     </row>
     <row r="800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A800">
-        <v>4.3663337484895245E-2</v>
+        <v>6.9389893984140916E-2</v>
       </c>
     </row>
     <row r="801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A801">
-        <v>7.0012621029558991E-2</v>
+        <v>4.9875650094801605E-2</v>
       </c>
     </row>
     <row r="802" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A802">
-        <v>0.11596749638501466</v>
+        <v>6.2263981745551415E-2</v>
       </c>
     </row>
     <row r="803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A803">
-        <v>0.10206384935933938</v>
+        <v>4.6319332521188986E-2</v>
       </c>
     </row>
     <row r="804" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A804">
-        <v>0.12877688084428976</v>
+        <v>4.8798252363114664E-2</v>
       </c>
     </row>
     <row r="805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A805">
-        <v>0.11838609903710753</v>
+        <v>8.5376795483785572E-2</v>
       </c>
     </row>
     <row r="806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A806">
-        <v>0.13943205893842156</v>
+        <v>8.6816758159493607E-2</v>
       </c>
     </row>
     <row r="807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A807">
-        <v>4.4927855714079104E-2</v>
+        <v>5.1865217105458147E-2</v>
       </c>
     </row>
     <row r="808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A808">
-        <v>2.703720939921592E-2</v>
+        <v>2.9821949739374513E-2</v>
       </c>
     </row>
     <row r="809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A809">
-        <v>3.286459221151769E-2</v>
+        <v>2.6920895492602116E-2</v>
       </c>
     </row>
     <row r="810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A810">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A811">
-        <v>2.703720939921592E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A812">
-        <v>2.703720939921592E-2</v>
+        <v>2.8372446139310979E-2</v>
       </c>
     </row>
     <row r="813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A813">
-        <v>3.1238209078795265E-2</v>
+        <v>6.1999159621791686E-2</v>
       </c>
     </row>
     <row r="814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A814">
-        <v>8.1394083354457511E-2</v>
+        <v>5.3265902056371557E-2</v>
       </c>
     </row>
     <row r="815" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A815">
-        <v>7.2346948442957137E-2</v>
+        <v>4.6740424690527957E-2</v>
       </c>
     </row>
     <row r="816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A816">
-        <v>7.204129683629816E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A817">
-        <v>0.12089778892681573</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="818" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A818">
-        <v>9.4776948524797289E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="819" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A819">
-        <v>6.2002908477471919E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A820">
-        <v>6.6751944861144177E-2</v>
+        <v>3.581677074744094E-2</v>
       </c>
     </row>
     <row r="821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A821">
-        <v>6.8788022502654131E-2</v>
+        <v>8.0557154950251994E-2</v>
       </c>
     </row>
     <row r="822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A822">
-        <v>0.12302799821995319</v>
+        <v>0.13776444353053788</v>
       </c>
     </row>
     <row r="823" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A823">
-        <v>0.20020074441292265</v>
+        <v>0.12871391840326821</v>
       </c>
     </row>
     <row r="824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A824">
-        <v>0.22024783704798145</v>
+        <v>0.11336711745426173</v>
       </c>
     </row>
     <row r="825" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A825">
-        <v>0.18228626707696743</v>
+        <v>0.13658857358210696</v>
       </c>
     </row>
     <row r="826" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A826">
-        <v>0.24325455873685503</v>
+        <v>0.14777788500300959</v>
       </c>
     </row>
     <row r="827" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A827">
-        <v>0.21034852887950795</v>
+        <v>0.16755517117769161</v>
       </c>
     </row>
     <row r="828" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A828">
-        <v>0.19237648995154077</v>
+        <v>0.18677705928146859</v>
       </c>
     </row>
     <row r="829" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A829">
-        <v>0.23756000867530203</v>
+        <v>0.12994286579961614</v>
       </c>
     </row>
     <row r="830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A830">
-        <v>0.21473956343701336</v>
+        <v>0.1431325760567764</v>
       </c>
     </row>
     <row r="831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A831">
-        <v>0.20824196354177973</v>
+        <v>0.13465527983372744</v>
       </c>
     </row>
     <row r="832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A832">
-        <v>0.2105546102645508</v>
+        <v>0.10440396167170883</v>
       </c>
     </row>
     <row r="833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A833">
-        <v>0.22101835052790564</v>
+        <v>7.8170463832227713E-2</v>
       </c>
     </row>
     <row r="834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A834">
-        <v>0.12517740910089839</v>
+        <v>0.11825626246241264</v>
       </c>
     </row>
     <row r="835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A835">
-        <v>6.879595771288205E-2</v>
+        <v>8.7308472297900966E-2</v>
       </c>
     </row>
     <row r="836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A836">
-        <v>2.703720939921592E-2</v>
+        <v>4.662361548247395E-2</v>
       </c>
     </row>
     <row r="837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A837">
-        <v>2.703720939921592E-2</v>
+        <v>5.2314647569598034E-2</v>
       </c>
     </row>
     <row r="838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A838">
-        <v>2.703720939921592E-2</v>
+        <v>0.11615399435567703</v>
       </c>
     </row>
     <row r="839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A839">
-        <v>2.703720939921592E-2</v>
+        <v>0.11292332894434215</v>
       </c>
     </row>
     <row r="840" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A840">
-        <v>5.6920166251858806E-2</v>
+        <v>0.11924263226505108</v>
       </c>
     </row>
     <row r="841" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A841">
-        <v>2.703720939921592E-2</v>
+        <v>8.402729258538727E-2</v>
       </c>
     </row>
     <row r="842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A842">
-        <v>4.2003314562754475E-2</v>
+        <v>0.13699796262850045</v>
       </c>
     </row>
     <row r="843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A843">
-        <v>4.1984587582935523E-2</v>
+        <v>0.13602603437301525</v>
       </c>
     </row>
     <row r="844" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A844">
-        <v>3.8422036124975023E-2</v>
+        <v>0.14857142520610284</v>
       </c>
     </row>
     <row r="845" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A845">
-        <v>7.0294113206689102E-2</v>
+        <v>0.11122879229026339</v>
       </c>
     </row>
     <row r="846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A846">
-        <v>5.5162136099658296E-2</v>
+        <v>0.13576808382129563</v>
       </c>
     </row>
     <row r="847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A847">
-        <v>2.703720939921592E-2</v>
+        <v>0.14363982898471622</v>
       </c>
     </row>
     <row r="848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A848">
-        <v>5.7494598655089241E-2</v>
+        <v>9.9802446205078318E-2</v>
       </c>
     </row>
     <row r="849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A849">
-        <v>0.11423552783201352</v>
+        <v>9.7869966110481557E-2</v>
       </c>
     </row>
     <row r="850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A850">
-        <v>0.1013019638343793</v>
+        <v>7.9965170392104601E-2</v>
       </c>
     </row>
     <row r="851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A851">
-        <v>0.10358400672912596</v>
+        <v>8.1305642120511376E-2</v>
       </c>
     </row>
     <row r="852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A852">
-        <v>0.17834589740783191</v>
+        <v>7.0983364661082363E-2</v>
       </c>
     </row>
     <row r="853" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A853">
-        <v>0.18699503842627482</v>
+        <v>6.3323648448114653E-2</v>
       </c>
     </row>
     <row r="854" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A854">
-        <v>0.18224881323354603</v>
+        <v>3.3848623473458191E-2</v>
       </c>
     </row>
     <row r="855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A855">
-        <v>0.22561954716103494</v>
+        <v>2.7377078941805993E-2</v>
       </c>
     </row>
     <row r="856" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A856">
-        <v>0.18739976633149261</v>
+        <v>4.5954887003447693E-2</v>
       </c>
     </row>
     <row r="857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A857">
-        <v>0.23489120348268211</v>
+        <v>0.10022435570763844</v>
       </c>
     </row>
     <row r="858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A858">
-        <v>0.18683934541686578</v>
+        <v>5.9672060259402269E-2</v>
       </c>
     </row>
     <row r="859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A859">
-        <v>0.19725451316921269</v>
+        <v>0.13615022917855493</v>
       </c>
     </row>
     <row r="860" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A860">
-        <v>0.18913386951774272</v>
+        <v>0.18180533598206461</v>
       </c>
     </row>
     <row r="861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A861">
-        <v>0.21754739300176326</v>
+        <v>0.18003983653325942</v>
       </c>
     </row>
     <row r="862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A862">
-        <v>0.24128230242255014</v>
+        <v>0.16274466616884678</v>
       </c>
     </row>
     <row r="863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A863">
-        <v>0.25567049276791803</v>
+        <v>0.13310106641739253</v>
       </c>
     </row>
     <row r="864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A864">
-        <v>0.26920516621861157</v>
+        <v>0.15585571146959537</v>
       </c>
     </row>
     <row r="865" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A865">
-        <v>0.23708492766538644</v>
+        <v>0.12669324249398498</v>
       </c>
     </row>
     <row r="866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A866">
-        <v>0.23684051232009518</v>
+        <v>0.10675064274189393</v>
       </c>
     </row>
     <row r="867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A867">
-        <v>0.23439623566953735</v>
+        <v>0.13248730918959362</v>
       </c>
     </row>
     <row r="868" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A868">
-        <v>0.17754941494670859</v>
+        <v>0.1420786131744573</v>
       </c>
     </row>
     <row r="869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A869">
-        <v>0.17514085673580712</v>
+        <v>0.16651277435141965</v>
       </c>
     </row>
     <row r="870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A870">
-        <v>0.12945160095003128</v>
+        <v>0.17669134563753419</v>
       </c>
     </row>
     <row r="871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A871">
-        <v>7.4235345955857485E-2</v>
+        <v>0.15624895457186039</v>
       </c>
     </row>
     <row r="872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A872">
-        <v>5.1998719155293416E-2</v>
+        <v>0.13307488804056977</v>
       </c>
     </row>
     <row r="873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A873">
-        <v>3.3482873011532875E-2</v>
+        <v>0.1546204593440999</v>
       </c>
     </row>
     <row r="874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A874">
-        <v>2.703720939921592E-2</v>
+        <v>0.12629846661730507</v>
       </c>
     </row>
     <row r="875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A875">
-        <v>2.703720939921592E-2</v>
+        <v>0.16115777555937197</v>
       </c>
     </row>
     <row r="876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A876">
-        <v>6.4730770313687055E-2</v>
+        <v>0.18111256288822503</v>
       </c>
     </row>
     <row r="877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A877">
-        <v>3.8151577502392744E-2</v>
+        <v>0.18334556536233165</v>
       </c>
     </row>
     <row r="878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A878">
-        <v>2.703720939921592E-2</v>
+        <v>0.1760074525549287</v>
       </c>
     </row>
     <row r="879" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A879">
-        <v>4.4558285391704471E-2</v>
+        <v>0.18108573944258066</v>
       </c>
     </row>
     <row r="880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A880">
-        <v>2.703720939921592E-2</v>
+        <v>0.29101537819052464</v>
       </c>
     </row>
     <row r="881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A881">
-        <v>5.4014469583662045E-2</v>
+        <v>0.27444798204514875</v>
       </c>
     </row>
     <row r="882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A882">
-        <v>2.8750757642361052E-2</v>
+        <v>0.21069072643046877</v>
       </c>
     </row>
     <row r="883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A883">
-        <v>4.352510381492835E-2</v>
+        <v>0.26555523319553864</v>
       </c>
     </row>
     <row r="884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A884">
-        <v>7.6106384404611774E-2</v>
+        <v>0.27427674459861012</v>
       </c>
     </row>
     <row r="885" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A885">
-        <v>0.10126824037734759</v>
+        <v>0.24074173769368196</v>
       </c>
     </row>
     <row r="886" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A886">
-        <v>8.9507416655870989E-2</v>
+        <v>0.3174529284272411</v>
       </c>
     </row>
     <row r="887" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A887">
-        <v>0.13178968336381261</v>
+        <v>0.32162127528833917</v>
       </c>
     </row>
     <row r="888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A888">
-        <v>0.15965330576887693</v>
+        <v>0.31704437582445005</v>
       </c>
     </row>
     <row r="889" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A889">
-        <v>0.132172497273776</v>
+        <v>0.27705074253397738</v>
       </c>
     </row>
     <row r="890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A890">
-        <v>0.14903189638483594</v>
+        <v>0.22951117150603112</v>
       </c>
     </row>
     <row r="891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A891">
-        <v>8.6741247553960329E-2</v>
+        <v>0.1609578029349229</v>
       </c>
     </row>
     <row r="892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A892">
-        <v>2.703720939921592E-2</v>
+        <v>0.14057052597252634</v>
       </c>
     </row>
     <row r="893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A893">
-        <v>3.3449297072298594E-2</v>
+        <v>0.10030506338152836</v>
       </c>
     </row>
     <row r="894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A894">
-        <v>2.703720939921592E-2</v>
+        <v>0.11850473420204435</v>
       </c>
     </row>
     <row r="895" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A895">
-        <v>2.703720939921592E-2</v>
+        <v>0.10377278098764753</v>
       </c>
     </row>
     <row r="896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A896">
-        <v>3.1097948003898621E-2</v>
+        <v>0.15908522181315105</v>
       </c>
     </row>
     <row r="897" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A897">
-        <v>2.703720939921592E-2</v>
+        <v>0.20307963822174152</v>
       </c>
     </row>
     <row r="898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A898">
-        <v>2.703720939921592E-2</v>
+        <v>0.20010089121938951</v>
       </c>
     </row>
     <row r="899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A899">
-        <v>2.703720939921592E-2</v>
+        <v>0.18241584781028236</v>
       </c>
     </row>
     <row r="900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A900">
-        <v>2.703720939921592E-2</v>
+        <v>0.2133264574539068</v>
       </c>
     </row>
     <row r="901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A901">
-        <v>2.703720939921592E-2</v>
+        <v>0.16626067902599304</v>
       </c>
     </row>
     <row r="902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A902">
-        <v>2.703720939921592E-2</v>
+        <v>0.182069991868164</v>
       </c>
     </row>
     <row r="903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A903">
-        <v>4.7675424611121932E-2</v>
+        <v>0.1524405718774976</v>
       </c>
     </row>
     <row r="904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A904">
-        <v>8.6125434901027018E-2</v>
+        <v>0.13323153175550437</v>
       </c>
     </row>
     <row r="905" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A905">
-        <v>8.4704341753354617E-2</v>
+        <v>0.1059866209899244</v>
       </c>
     </row>
     <row r="906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A906">
-        <v>0.15438639069335486</v>
+        <v>0.12152368655102747</v>
       </c>
     </row>
     <row r="907" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A907">
-        <v>0.19196066285340316</v>
+        <v>9.1416311496071781E-2</v>
       </c>
     </row>
     <row r="908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A908">
-        <v>0.23809963702739817</v>
+        <v>5.4974082849097626E-2</v>
       </c>
     </row>
     <row r="909" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A909">
-        <v>0.19701451619510424</v>
+        <v>7.1154774246902142E-2</v>
       </c>
     </row>
     <row r="910" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A910">
-        <v>0.17369336982017805</v>
+        <v>5.637631735303613E-2</v>
       </c>
     </row>
     <row r="911" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A911">
-        <v>0.18385266706202119</v>
+        <v>6.6525387657790203E-2</v>
       </c>
     </row>
     <row r="912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A912">
-        <v>0.1919570625417204</v>
+        <v>5.4371092857182793E-2</v>
       </c>
     </row>
     <row r="913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A913">
-        <v>0.1954506636135637</v>
+        <v>6.1672543555422885E-2</v>
       </c>
     </row>
     <row r="914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A914">
-        <v>0.17249547599154255</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A915">
-        <v>0.18154119848635469</v>
+        <v>3.4430499285624826E-2</v>
       </c>
     </row>
     <row r="916" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A916">
-        <v>0.20456472597647538</v>
+        <v>8.9497194654083817E-2</v>
       </c>
     </row>
     <row r="917" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A917">
-        <v>0.15996214964869804</v>
+        <v>0.12116814403700135</v>
       </c>
     </row>
     <row r="918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A918">
-        <v>0.16812719929916162</v>
+        <v>0.14711217496515996</v>
       </c>
     </row>
     <row r="919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A919">
-        <v>0.10501246250365764</v>
+        <v>0.13350897675986989</v>
       </c>
     </row>
     <row r="920" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A920">
-        <v>0.13647958972908514</v>
+        <v>0.13457347989606039</v>
       </c>
     </row>
     <row r="921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A921">
-        <v>0.14059320568850234</v>
+        <v>0.13768755824416451</v>
       </c>
     </row>
     <row r="922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A922">
-        <v>0.1103898717179395</v>
+        <v>0.13573050360203523</v>
       </c>
     </row>
     <row r="923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A923">
-        <v>7.011011049289427E-2</v>
+        <v>0.10309602900855322</v>
       </c>
     </row>
     <row r="924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A924">
-        <v>7.4078525133353279E-2</v>
+        <v>8.8074101557708243E-2</v>
       </c>
     </row>
     <row r="925" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A925">
-        <v>0.10124712143589459</v>
+        <v>7.9746259466358854E-2</v>
       </c>
     </row>
     <row r="926" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A926">
-        <v>0.1267899768093228</v>
+        <v>6.2341962757478803E-2</v>
       </c>
     </row>
     <row r="927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A927">
-        <v>0.12698187895510471</v>
+        <v>8.7848498890438123E-2</v>
       </c>
     </row>
     <row r="928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A928">
-        <v>0.15270592229806734</v>
+        <v>0.16941762832982879</v>
       </c>
     </row>
     <row r="929" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A929">
-        <v>0.18036441205659801</v>
+        <v>0.11867751083984016</v>
       </c>
     </row>
     <row r="930" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A930">
-        <v>0.16614931818911335</v>
+        <v>0.1187332726556789</v>
       </c>
     </row>
     <row r="931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A931">
-        <v>0.17219447155206519</v>
+        <v>6.7359420633547537E-2</v>
       </c>
     </row>
     <row r="932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A932">
-        <v>0.23109948280587034</v>
+        <v>0.10828039693087946</v>
       </c>
     </row>
     <row r="933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A933">
-        <v>0.23993874257604553</v>
+        <v>0.15144198643285503</v>
       </c>
     </row>
     <row r="934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A934">
-        <v>0.22826080024537987</v>
+        <v>9.0448091377114459E-2</v>
       </c>
     </row>
     <row r="935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A935">
-        <v>0.25040251995815532</v>
+        <v>0.15214601720742085</v>
       </c>
     </row>
     <row r="936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A936">
-        <v>0.21371731634464949</v>
+        <v>0.11021694962420227</v>
       </c>
     </row>
     <row r="937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A937">
-        <v>0.29554454683574938</v>
+        <v>0.11396384008842707</v>
       </c>
     </row>
     <row r="938" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A938">
-        <v>0.26305949326723976</v>
+        <v>0.14651240231804946</v>
       </c>
     </row>
     <row r="939" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A939">
-        <v>0.2359913484846963</v>
+        <v>0.14580275898955797</v>
       </c>
     </row>
     <row r="940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A940">
-        <v>0.20274615288223485</v>
+        <v>0.21656496867241581</v>
       </c>
     </row>
     <row r="941" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A941">
-        <v>0.15312473751517403</v>
+        <v>0.29898116145076742</v>
       </c>
     </row>
     <row r="942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A942">
-        <v>0.11459468543610027</v>
+        <v>0.29035305952102131</v>
       </c>
     </row>
     <row r="943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A943">
-        <v>9.5410859003579152E-2</v>
+        <v>0.21414734692656609</v>
       </c>
     </row>
     <row r="944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A944">
-        <v>5.7784835540762906E-2</v>
+        <v>0.19302585491636304</v>
       </c>
     </row>
     <row r="945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A945">
-        <v>2.703720939921592E-2</v>
+        <v>0.15689690662032393</v>
       </c>
     </row>
     <row r="946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A946">
-        <v>6.3450605637922597E-2</v>
+        <v>0.12535062212677736</v>
       </c>
     </row>
     <row r="947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A947">
-        <v>5.2394544264770158E-2</v>
+        <v>8.3543977912124909E-2</v>
       </c>
     </row>
     <row r="948" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A948">
-        <v>3.1092087176775286E-2</v>
+        <v>8.3697507815355524E-2</v>
       </c>
     </row>
     <row r="949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A949">
-        <v>7.3017015468425317E-2</v>
+        <v>0.15105550702045684</v>
       </c>
     </row>
     <row r="950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A950">
-        <v>4.0716210388923153E-2</v>
+        <v>0.12142979786459261</v>
       </c>
     </row>
     <row r="951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A951">
-        <v>2.703720939921592E-2</v>
+        <v>0.10777489123513706</v>
       </c>
     </row>
     <row r="952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A952">
-        <v>2.7857358298376898E-2</v>
+        <v>0.14286662765418714</v>
       </c>
     </row>
     <row r="953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A953">
-        <v>2.703720939921592E-2</v>
+        <v>0.17777088779119515</v>
       </c>
     </row>
     <row r="954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A954">
-        <v>4.2818278670525199E-2</v>
+        <v>0.18674846881099769</v>
       </c>
     </row>
     <row r="955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A955">
-        <v>6.3932156085124189E-2</v>
+        <v>0.21324798385427926</v>
       </c>
     </row>
     <row r="956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A956">
-        <v>4.0374213414445546E-2</v>
+        <v>0.23325911663653759</v>
       </c>
     </row>
     <row r="957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A957">
-        <v>6.6138514200478643E-2</v>
+        <v>0.21062460316842541</v>
       </c>
     </row>
     <row r="958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A958">
-        <v>0.10380098283904812</v>
+        <v>0.21607595793583062</v>
       </c>
     </row>
     <row r="959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A959">
-        <v>0.11655899921239309</v>
+        <v>0.19704796233853966</v>
       </c>
     </row>
     <row r="960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A960">
-        <v>0.11535296562518631</v>
+        <v>0.15899691162165902</v>
       </c>
     </row>
     <row r="961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A961">
-        <v>0.11917578030858082</v>
+        <v>0.17387417516405562</v>
       </c>
     </row>
     <row r="962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A962">
-        <v>0.18164767115252856</v>
+        <v>0.1691452009308986</v>
       </c>
     </row>
     <row r="963" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A963">
-        <v>0.19456067060002269</v>
+        <v>0.15618817649844879</v>
       </c>
     </row>
     <row r="964" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A964">
-        <v>0.20679354896422536</v>
+        <v>0.15980055717427299</v>
       </c>
     </row>
     <row r="965" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A965">
-        <v>0.23779243621261581</v>
+        <v>0.18637319941763369</v>
       </c>
     </row>
     <row r="966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A966">
-        <v>0.20983193802954503</v>
+        <v>0.19184150481506912</v>
       </c>
     </row>
     <row r="967" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A967">
-        <v>0.20635683708313859</v>
+        <v>0.1904401547644092</v>
       </c>
     </row>
     <row r="968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A968">
-        <v>0.15739247346460666</v>
+        <v>0.19194288847944696</v>
       </c>
     </row>
     <row r="969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A969">
-        <v>0.12881488873977898</v>
+        <v>0.1857707123809611</v>
       </c>
     </row>
     <row r="970" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A970">
-        <v>0.14274637397379192</v>
+        <v>0.15245326183865099</v>
       </c>
     </row>
     <row r="971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A971">
-        <v>0.15888787049540443</v>
+        <v>0.17271280733314373</v>
       </c>
     </row>
     <row r="972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A972">
-        <v>0.20417304332341252</v>
+        <v>0.21264520286216843</v>
       </c>
     </row>
     <row r="973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A973">
-        <v>0.15624019088018273</v>
+        <v>0.18597605835147771</v>
       </c>
     </row>
     <row r="974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A974">
-        <v>0.19781200354171485</v>
+        <v>0.24249711333429774</v>
       </c>
     </row>
     <row r="975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A975">
-        <v>0.22678119083146933</v>
+        <v>0.22623391851582803</v>
       </c>
     </row>
     <row r="976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A976">
-        <v>0.21291340460068892</v>
+        <v>0.208539414873882</v>
       </c>
     </row>
     <row r="977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A977">
-        <v>0.16561575989125502</v>
+        <v>0.16998913264715035</v>
       </c>
     </row>
     <row r="978" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A978">
-        <v>0.16689237706500581</v>
+        <v>0.13686767531733712</v>
       </c>
     </row>
     <row r="979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A979">
-        <v>0.1917428169794971</v>
+        <v>0.10011714418775465</v>
       </c>
     </row>
     <row r="980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A980">
-        <v>0.1484270897099276</v>
+        <v>0.10857151850385643</v>
       </c>
     </row>
     <row r="981" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A981">
-        <v>0.16394558719107866</v>
+        <v>0.15794070956744924</v>
       </c>
     </row>
     <row r="982" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A982">
-        <v>0.12616424909328489</v>
+        <v>0.16930388030213048</v>
       </c>
     </row>
     <row r="983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A983">
-        <v>0.10713525858263122</v>
+        <v>0.19096278587523358</v>
       </c>
     </row>
     <row r="984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A984">
-        <v>9.2082673963943415E-2</v>
+        <v>0.22775293445766451</v>
       </c>
     </row>
     <row r="985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A985">
-        <v>0.13101806626306708</v>
+        <v>0.13497934225224667</v>
       </c>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A986">
-        <v>0.12933075003232405</v>
+        <v>0.12438470451507419</v>
       </c>
     </row>
     <row r="987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A987">
-        <v>0.16052820967422154</v>
+        <v>0.13162245225786098</v>
       </c>
     </row>
     <row r="988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A988">
-        <v>0.12804738834935303</v>
+        <v>0.15060986193443884</v>
       </c>
     </row>
     <row r="989" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A989">
-        <v>0.1318259150697394</v>
+        <v>0.10146658052490007</v>
       </c>
     </row>
     <row r="990" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A990">
-        <v>0.11677551927229497</v>
+        <v>6.5540920704334218E-2</v>
       </c>
     </row>
     <row r="991" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A991">
-        <v>0.10363234299932909</v>
+        <v>8.9548521229007874E-2</v>
       </c>
     </row>
     <row r="992" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A992">
-        <v>9.0867306473622234E-2</v>
+        <v>8.302709265772576E-2</v>
       </c>
     </row>
     <row r="993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A993">
-        <v>0.12681971685304483</v>
+        <v>9.8816749828185751E-2</v>
       </c>
     </row>
     <row r="994" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A994">
-        <v>0.14201533794672117</v>
+        <v>6.4578148326187565E-2</v>
       </c>
     </row>
     <row r="995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A995">
-        <v>0.12788054663640214</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
     <row r="996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A996">
-        <v>8.5387954671373403E-2</v>
+        <v>4.1648453888532368E-2</v>
       </c>
     </row>
     <row r="997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A997">
-        <v>0.10875181149498904</v>
+        <v>7.7120220436578665E-2</v>
       </c>
     </row>
     <row r="998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A998">
-        <v>0.11401194896880595</v>
+        <v>0.1288801458011738</v>
       </c>
     </row>
     <row r="999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A999">
-        <v>9.5943758472812946E-2</v>
+        <v>7.3719478412944905E-2</v>
       </c>
     </row>
     <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1000">
-        <v>7.6145909792462857E-2</v>
+        <v>3.4057147157045033E-2</v>
       </c>
     </row>
     <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1001">
-        <v>4.2688157732038226E-2</v>
+        <v>2.4432040112607668E-2</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>beta</t>
-  </si>
-  <si>
-    <t>gamma</t>
   </si>
   <si>
     <t>gBar</t>
@@ -397,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A1001"/>
     </sheetView>
   </sheetViews>
@@ -405,7 +402,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -5418,15 +5415,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5439,11 +5436,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9.9999999999999995E-7</v>
       </c>
@@ -5456,15 +5450,12 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.99999899999999997</v>
       </c>
-      <c r="D3">
+      <c r="C3">
         <v>0.99999899999999997</v>
       </c>
     </row>

--- a/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
+++ b/Examples/BoundedProductivityEstimation/BoundedProductivityEstimation.xlsx
@@ -5418,7 +5418,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5442,7 +5442,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="C2">
         <v>0</v>
